--- a/Business_in_Jamaica_Categories.xlsx
+++ b/Business_in_Jamaica_Categories.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,31 +857,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gelstone Inc.</t>
+          <t>Property Maintenance Group NY, LLC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lisa Livingstone</t>
+          <t>Melvin Holder</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7189624304</v>
+        <v>8883127253</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gelstonenyc@gmail.com</t>
+          <t>mholder307@gmail.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11/29/2022;11/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44803</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -890,14 +888,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>147-04 176th Street</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Suite 2E</t>
-        </is>
-      </c>
+          <t>179-25 135th Avenue</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -913,12 +907,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://www.gelstone.com</t>
+          <t>http://www.pmgny.us</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Gelstone Inc is a full-service contracting firm which also provides solutions for all your plumbing, heating repairs and hardware replacement. Our area of specialty also includes all mechanical repairs, plumbing maintenance, heating and ventilation repairs and solutions.</t>
+          <t>We provide painting services, masonry work, landscaping, plumbing, dry wall, demolition and garbage removal.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -930,29 +924,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property Maintenance Group NY, LLC</t>
+          <t>Law Offices Of Carolyn S. Clyne P.C.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Melvin Holder</t>
+          <t>Carolyn Clyne</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8883127253</v>
+        <v>7189424427</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>mholder307@gmail.com</t>
+          <t>Clynec@csclawoffice.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44803</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>06/30/2020;06/30/2020</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -961,10 +957,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>179-25 135th Avenue</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>89-31 161st Street</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Suite 705</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://www.pmgny.us</t>
+          <t>http://csclawoffice.com</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>We provide painting services, masonry work, landscaping, plumbing, dry wall, demolition and garbage removal.</t>
+          <t>LEGAL SERVICES</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -997,29 +997,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>718 Consulting Inc.</t>
+          <t>Kleveille Entertainment &amp; Publishing</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dale Davids</t>
+          <t>Karleen Leveille</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6465528141</v>
+        <v>2125373884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dale.davids@yahoo.com</t>
+          <t>karleen@kleveilleent.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44712</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>08/31/2024;08/31/2024</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1028,10 +1030,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>172-19 Baisley Blvd.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>8208 135th Street</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Apt 1K</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1043,16 +1049,16 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://www.facebook.com/dale.davids</t>
+          <t>http://www.Kleveille.com</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Insurance; Property and Casualty; Business insurance; General Liability</t>
+          <t>Multi media &amp; production company that produces content ranging from social media to experiential events.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1064,22 +1070,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CTS Logistics Group</t>
+          <t>Hay Mechanical Solutions Corp.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gabriel Gorre</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>718-995-9560</t>
-        </is>
+          <t>Christopher Hay</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7182912620</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ggorre@ctslogi.com</t>
+          <t>haymech@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1088,16 +1092,16 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44408</v>
+        <v>45443</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>167-43 148th Avenue</t>
+          <t>114-53 174th Street</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1117,7 +1121,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CTS provides freight forwarding and logistics services around the world, including trucking services, ocean freight services, and air freight services, among others. We handle the documentation, delivery coordination, and other related services necessary for our customers to ship goods throughout the globe.</t>
+          <t>Plumbing - install new plumbing systems. Repair of existing plumbing systems. Installations of backflow prevention devices. Installation and maintenance of HVAC systems.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1129,47 +1133,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Law Offices Of Carolyn S. Clyne P.C.</t>
+          <t>BTU Delta Construction Corp.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carolyn Clyne</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>7189424427</v>
+          <t>Mrunal Patel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>347-217-9915</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Clynec@csclawoffice.com</t>
+          <t>btudelta@gmail.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>06/30/2020;06/30/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45443</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>89-31 161st Street</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Suite 705</t>
-        </is>
-      </c>
+          <t>179-15 Hillside Avenue</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1181,16 +1181,12 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>11435</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>http://csclawoffice.com</t>
-        </is>
-      </c>
+        <v>11432</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LEGAL SERVICES</t>
+          <t>A construction company specializes in general construction for commercial &amp; residential buildings.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1202,47 +1198,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kleveille Entertainment &amp; Publishing</t>
+          <t>Mike &amp; Son General Construction &amp; Home Improvement Inc.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karleen Leveille</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2125373884</v>
+          <t>Bhouhauth Persaud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>646-403-1962</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>karleen@kleveilleent.com</t>
+          <t>mikeandsonconstruction@aol.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>08/31/2024;08/31/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45443</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8208 135th Street</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Apt 1K</t>
-        </is>
-      </c>
+          <t>109-64 Liverpool Street</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1256,14 +1248,10 @@
       <c r="L12" t="n">
         <v>11435</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>http://www.Kleveille.com</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Multi media &amp; production company that produces content ranging from social media to experiential events.</t>
+          <t>My business is a New York City construction business that maintenance jobs as all other jobs as well.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1275,20 +1263,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hay Mechanical Solutions Corp.</t>
+          <t>Gayatri Stationery &amp; Legal Form, Inc.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Christopher Hay</t>
+          <t>Paraginiben Rami</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7182912620</v>
+        <v>7182918787</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>haymech@gmail.com</t>
+          <t>ritu05@hotmail.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1297,16 +1285,16 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45443</v>
+        <v>44833</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>114-53 174th Street</t>
+          <t>8787 Sutphin Blvd.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1321,12 +1309,12 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Plumbing - install new plumbing systems. Repair of existing plumbing systems. Installations of backflow prevention devices. Installation and maintenance of HVAC systems.</t>
+          <t>Copies &amp; document, graphic design, binding, office products, banner, poster, shipping serv. direct mail and office cleaning.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1338,31 +1326,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JMR Consulting Services</t>
+          <t>Philibert Engineering, PC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Judith Rapley</t>
+          <t>Jacky Philibert</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3475109131</v>
+        <v>7185264180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Judith@judithrapley.com</t>
+          <t>info@philibertengineering.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>04/29/2022;04/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1371,14 +1357,10 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>135-25 Hoover Avenue</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>6M</t>
-        </is>
-      </c>
+          <t>83-24 160th Street</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1390,16 +1372,16 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11435</v>
+        <v>11432</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://www.judithrapley.com</t>
+          <t>http://www.philibertengineering.com</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>JMR Consulting Services provides consulting solutions through strategic planning, professional development, personal coaching and leadership development and training. Life coaching addressing interpersonal communication and self-care are also addressed. Professional services and learning development are key offerings.</t>
+          <t>Engineering consulting firm that specializes in providing design, quality control, safety and special inspection services.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1411,31 +1393,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sullivan-Hernandez Agency, Inc.</t>
+          <t>Jamaica Physical Therapy, P.C.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yolanda Sullivan</t>
+          <t>Samuel Olaogun</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9178333842</v>
+        <v>7182973699</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ysullivan@shagency.org</t>
+          <t>sam@jamaicapt.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>01/30/2022;01/30/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1444,14 +1424,10 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>161 - 15 Rockaway Blvd.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Ste. 109</t>
-        </is>
-      </c>
+          <t>9050 Parsons Blvd., Suite 308</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1463,16 +1439,16 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>11434</v>
+        <v>11432</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://www.shagency.org</t>
+          <t>http://www.jamaicapt.com</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Insurance Risk, Healthcare, Compliance and Billing Services</t>
+          <t>Physical Therapy Services, Physical Rehabilitation, Physical therapy and rehabilitation center, consulting and educational services, First Aid &amp; CPR Training</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1484,22 +1460,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BTU Delta Construction Corp.</t>
+          <t>Rick's Construction &amp; Ironworks, Inc.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mrunal Patel</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>347-217-9915</t>
-        </is>
+          <t>Ghagawallah Misra</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7185267037</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>btudelta@gmail.com</t>
+          <t>ricksiron@aol.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1508,7 +1482,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1517,7 +1491,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>179-15 Hillside Avenue</t>
+          <t>102-38 Remington Street</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1532,12 +1506,12 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>11432</v>
+        <v>11435</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>A construction company specializes in general construction for commercial &amp; residential buildings.</t>
+          <t>General contractor specializing in all types of steel works. We also do masonry, concrete sidewalk &amp; foundations, roofing, flooring, painting and waterproofing.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1549,22 +1523,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mike &amp; Son General Construction &amp; Home Improvement Inc.</t>
+          <t>Red Eagle Contracting Inc.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bhouhauth Persaud</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>646-403-1962</t>
-        </is>
+          <t>Balram Guiadeen</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3476865226</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>mikeandsonconstruction@aol.com</t>
+          <t>bguiadeen@gmail.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1573,7 +1545,7 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45443</v>
+        <v>44255</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1582,7 +1554,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109-64 Liverpool Street</t>
+          <t>150-38 119th Road</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1597,12 +1569,12 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>My business is a New York City construction business that maintenance jobs as all other jobs as well.</t>
+          <t>I do painting, carpentry, roofing, fencing, lighting electrical, masonry, ceiling, home renovation, bathroom, kitchen, plumbing, side walk, guardrails, tile, interior renovation, janitorial service, demolition.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1614,20 +1586,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Al-Arsh Construction Corp</t>
+          <t>Manny P Concrete Company, Inc.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ghulam Murtaza</t>
+          <t>Manuel Pereira</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7184315203</v>
+        <v>7182061550</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>alarshny@yahoo.com</t>
+          <t>mannypconcrete@hotmail.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1636,16 +1608,16 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45015</v>
+        <v>45168</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8825 148 st 4S</t>
+          <t>145-18 Liberty Avenue</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1665,7 +1637,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Al-Arsh Construction Corp. has been a dependable name in construction since 2005. Al-Arsh is a Class A General Contractor who specializes in the construction of commercial and residential buildings. We are committed to providing the customer with the highest quality construction in order to obtain a satisfied customer.    Our services range from kitchen remodeling, bathroom remodeling, basement remodeling, installing cabinetry, installing flooring, residential acoustical ceiling installation, painting, ceramic tile, siding, drywall and decks.    We pride ourselves of great craftsmanship and quality. Our projects are done in a neat and timely manner and within budget. Our estimates are free and are done by the owner himself.</t>
+          <t>General construction, excavation, cast in place concrete, Site work, waterproofing, carpentry, demolition, drainage, All phases of concrete.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1677,20 +1649,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gayatri Stationery &amp; Legal Form, Inc.</t>
+          <t>Queens Surgical Corporation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paraginiben Rami</t>
+          <t>Krishna Ramroop</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7182918787</v>
+        <v>7188492030</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ritu05@hotmail.com</t>
+          <t>queenssurgical@gmail.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1699,7 +1671,7 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44833</v>
+        <v>44560</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1708,7 +1680,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8787 Sutphin Blvd.</t>
+          <t>106-15 Sutphin Blvd</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1725,10 +1697,14 @@
       <c r="L19" t="n">
         <v>11435</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://www.queenssurgicalcorp.com</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Copies &amp; document, graphic design, binding, office products, banner, poster, shipping serv. direct mail and office cleaning.</t>
+          <t>Wholesale supplier of all surgical supplies, laboratory and medical equipment.  Sells locally and internationally.  Open Monday thru Friday - 9am - 5pm.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1740,20 +1716,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philibert Engineering, PC</t>
+          <t>Silverscreen Solutions LLC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jacky Philibert</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>7185264180</v>
+          <t>Curtis Riley</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>877-311-6777</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>info@philibertengineering.com</t>
+          <t>Silverscreensolutionsllc@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1762,7 +1740,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45045</v>
+        <v>45473</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1771,10 +1749,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>83-24 160th Street</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>134-15 166 Pl.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Apt 1D</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1786,16 +1768,16 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://www.philibertengineering.com</t>
+          <t>http://S3Floorcare.com</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Engineering consulting firm that specializes in providing design, quality control, safety and special inspection services.</t>
+          <t>Wood Flooring Refinishing, Carpet Cleaning, Tile and Grout , Floor cleaning</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1807,20 +1789,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jamaica Physical Therapy, P.C.</t>
+          <t>First Choice Mechanical Inc.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Samuel Olaogun</t>
+          <t>Jimmy Moyen</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7182973699</v>
+        <v>7184544101</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sam@jamaicapt.com</t>
+          <t>jmoyen@firstchoicemech.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1829,7 +1811,7 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44012</v>
+        <v>45412</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1838,7 +1820,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9050 Parsons Blvd., Suite 308</t>
+          <t>92-13 183rd Street</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1853,16 +1835,16 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11432</v>
+        <v>11423</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://www.jamaicapt.com</t>
+          <t>http://www.firstchoicemech.com</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Physical Therapy Services, Physical Rehabilitation, Physical therapy and rehabilitation center, consulting and educational services, First Aid &amp; CPR Training</t>
+          <t>We are an HVAC mechanical contracting company, specializing in service maintenance and installation.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1874,20 +1856,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rick's Construction &amp; Ironworks, Inc.</t>
+          <t>ASE' Bodycare, LLC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ghagawallah Misra</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>7185267037</v>
+          <t>Lespaul Newton</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>516-900-4583</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ricksiron@aol.com</t>
+          <t>asebodycare@gmail.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1896,19 +1880,23 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45412</v>
+        <v>45596</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>102-38 Remington Street</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>82-24 135th Street</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Apt 2D</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -1922,10 +1910,14 @@
       <c r="L22" t="n">
         <v>11435</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://www.asebodycare.com</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>General contractor specializing in all types of steel works. We also do masonry, concrete sidewalk &amp; foundations, roofing, flooring, painting and waterproofing.</t>
+          <t>ASE' Bodycare, LLC sells hair and bodycare products at affordable prices.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1937,20 +1929,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Red Eagle Contracting Inc.</t>
+          <t>Infinite Horizons, LLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Balram Guiadeen</t>
+          <t>Randall Powell</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3476865226</v>
+        <v>7182193024</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>bguiadeen@gmail.com</t>
+          <t>rpjpowell@gmail.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1959,16 +1951,16 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44255</v>
+        <v>43981</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>150-38 119th Road</t>
+          <t>142-05 Rockaway Blvd</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1983,12 +1975,16 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>11436</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://www.infinitehorizonsredc.com</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>I do painting, carpentry, roofing, fencing, lighting electrical, masonry, ceiling, home renovation, bathroom, kitchen, plumbing, side walk, guardrails, tile, interior renovation, janitorial service, demolition.</t>
+          <t>Construction management services, project management services property management services, affordable housing development, general construction, home improvement contractor.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2000,20 +1996,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manny P Concrete Company, Inc.</t>
+          <t>RCGA Architects-Interior Designers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manuel Pereira</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>7182061550</v>
+          <t>Robert Gaskin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>718-206-2200</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>mannypconcrete@hotmail.com</t>
+          <t>rgaskin@rcgaarchitects.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2022,19 +2020,23 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45168</v>
+        <v>44651</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>145-18 Liberty Avenue</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>90-04 161st Street</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Suite 801</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2051,7 +2053,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>General construction, excavation, cast in place concrete, Site work, waterproofing, carpentry, demolition, drainage, All phases of concrete.</t>
+          <t>RCGA Architects is a full service architectural firm, specializing in interior design, airport planning, programming and construction, commercial, residential, houses of worship. We are also expert construction managers.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2063,22 +2065,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Silverscreen Solutions LLC</t>
+          <t>Jonathan Metal &amp; Glass LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Curtis Riley</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>877-311-6777</t>
-        </is>
+          <t>Wilford Smith</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7188468000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Silverscreensolutionsllc@gmail.com</t>
+          <t>wilfred@jmg-nyc.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45473</v>
+        <v>44012</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2096,14 +2096,10 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>134-15 166 Pl.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Apt 1D</t>
-        </is>
-      </c>
+          <t>178-18 107th Street</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2115,59 +2111,57 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>11434</v>
+        <v>11433</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://S3Floorcare.com</t>
+          <t>http://www.jmg-nyc.com</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Wood Flooring Refinishing, Carpet Cleaning, Tile and Grout , Floor cleaning</t>
+          <t>We are an architectural metal and glass company.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>First Choice Mechanical Inc.</t>
+          <t>SWEET P. HOME CARE  INC.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jimmy Moyen</t>
+          <t>Patricia Smith</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7184544101</v>
+        <v>7189787221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jmoyen@firstchoicemech.com</t>
+          <t>pvsmith56@yahoo.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45412</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>92-13 183rd Street</t>
+          <t>169-37 144 Road</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -2182,43 +2176,41 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>11423</v>
+        <v>11434</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://www.firstchoicemech.com</t>
+          <t>http://sweetphomecare.com</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>We are an HVAC mechanical contracting company, specializing in service maintenance and installation.</t>
+          <t>Sweet P Home Care Inc. provides Private Duty Nursing, Home Health Aide, Personal Care Aides, House Keeping and Home Maker services within the 5 boroughs and Nassau county</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASE' Bodycare, LLC</t>
+          <t>B N Restoration Inc.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lespaul Newton</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>516-900-4583</t>
-        </is>
+          <t>Zarak Chaudhary</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7188710161</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>asebodycare@gmail.com</t>
+          <t>zarakch@bnrestoration.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2227,21 +2219,21 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45596</v>
+        <v>45291</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>82-24 135th Street</t>
+          <t>167-10 South Conduit Blvd.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Apt 2D</t>
+          <t>Suite 103</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2255,41 +2247,41 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://www.asebodycare.com</t>
+          <t>http://www.bnrestoration.com</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>ASE' Bodycare, LLC sells hair and bodycare products at affordable prices.</t>
+          <t>General Contractors  FaÃ§ade restoration  Historic preservations</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Infinite Horizons, LLC</t>
+          <t>Exquisite Construction Corp.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Randall Powell</t>
+          <t>Albert Christie Jr</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7182193024</v>
+        <v>3472368685</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rpjpowell@gmail.com</t>
+          <t>cvillage1@mcom.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2298,7 +2290,7 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>43981</v>
+        <v>45473</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2307,7 +2299,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>142-05 Rockaway Blvd</t>
+          <t>95-15 Sutphin Blvd</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2322,41 +2314,43 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>11436</v>
+        <v>11435</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://www.infinitehorizonsredc.com</t>
+          <t>http://www.exquisiteconstructionny.com</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Construction management services, project management services property management services, affordable housing development, general construction, home improvement contractor.</t>
+          <t>Exquisite Construction Corp is available for all your remodeling and construction needs, whether itÂ¿s time for a kitchen or bathroom remodeling project. Exquisite Construction services clients throughout the NYC area.     Exquisite Construction was founded with a strong belief in traditional business values. We approach each business endeavor with an ambition to build relationships, deliver the highest quality projects, and feel a sense of pride and accomplishments upon job completion. From the initial client meeting to job completion, Exquisite Construction is accountable to our customers throughout the process.     Our staff provides clients with superior design and service. Exquisite ConstructionÂ¿s team will remain on the job site until every phase of the construction is complete and meets with the clientÂ¿s satisfaction.     Whether youÂ¿re looking to do interior or exterior work or need a little of both, Exquisite Construction can take care of your needs. We can help you with design ideas, color consultation and to evaluate which changes and upgrades are right for you. If youÂ¿re looking for a reliable, qualified, full service contractor, youÂ¿ll be glad you found us. Exquisite Construction will complete your project professionally, in a timely manner and with attention to detail.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Big L Enterprises, Inc.</t>
+          <t>Unique Construction &amp; Home Improvement Inc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kevin Leak</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>7182165683</v>
+          <t>Amarik Singh</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>347-553-7720</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BigLhomeimprovement@gmail.com</t>
+          <t>mekaunique@yahoo.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2365,19 +2359,23 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44165</v>
+        <v>45382</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>140-60 161st Street</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>144-34 Hillside Avenue</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1st Floor</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2389,39 +2387,37 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Big L Enterprises is a construction company specializing in brick work, siding, stucco interior and exterior, windows, roofing, kitchen, bathroom, wood floors, tile and concrete work. We do commercial and residential homes.</t>
+          <t>WE PERFORM ALL KINDS OF WATERPROOFING, ROOFING MASONRY EXTERIOR &amp; REPAIR, CONCRETE GRINDING, POINTING, WINDOW LINTELS &amp; SILL REPLACEMENT TERRA COTTA AND CMU WORK.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RCGA Architects-Interior Designers</t>
+          <t>Sunshine Heating</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert Gaskin</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>718-206-2200</t>
-        </is>
+          <t>Gerald Chase</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7182628337</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rgaskin@rcgaarchitects.com</t>
+          <t>Sunshineheating@yahoo.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2430,7 +2426,7 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44651</v>
+        <v>44104</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2439,14 +2435,10 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90-04 161st Street</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Suite 801</t>
-        </is>
-      </c>
+          <t>104-73 165th Street</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2458,56 +2450,62 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11435</v>
+        <v>11433</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>RCGA Architects is a full service architectural firm, specializing in interior design, airport planning, programming and construction, commercial, residential, houses of worship. We are also expert construction managers.</t>
+          <t>Heating and plumbing.</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SWEET P. HOME CARE  INC.</t>
+          <t>NY Building Systems Consultant Inc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Patricia Smith</t>
+          <t>Md Islam</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7189787221</v>
+        <v>9174035425</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>pvsmith56@yahoo.com</t>
+          <t>mdislam@nybscinc.com</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>44741</v>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>169-37 144 Road</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>9011 149th Street</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Suite 4E</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2519,16 +2517,16 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sweetphomecare.com</t>
+          <t>http://www.nybscinc.com</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sweet P Home Care Inc. provides Private Duty Nursing, Home Health Aide, Personal Care Aides, House Keeping and Home Maker services within the 5 boroughs and Nassau county</t>
+          <t>NY Building Systems Consultant Inc (NYBSC) is a comprehensive engineering and energy consulting firm offering full services in building and system design, energy efficiency, commissioning, project management, cogeneration, and testing and diagnostic.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2540,38 +2538,40 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P.E.I. Consultants, LLC</t>
+          <t>New Safeway Contracting Corp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hugues Paul</t>
+          <t>Sharanjit Kaur</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7182889556</v>
+        <v>7186580911</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Huguespaul718@gmail.com</t>
+          <t>newsafeway1@yahoo.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>45291</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>08/30/2022;08/30/2022</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>175-20 Wexford Terrace Apt 5T</t>
+          <t>175-14 Hillside Ave</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2591,7 +2591,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Special Inspections of mechanical systems for commercial buildings.</t>
+          <t>New Safeway Contracting specializes in the ability to handle the may many various responsibilities to complete your construction projects. We are available for all of your construction needs, interior design build out, install bridge and pipe scaffolds, waterproofing, brick work and new ground construction.   We are fully licensed, bonded and insured contractors in New York.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2603,29 +2603,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Exquisite Construction Corp.</t>
+          <t>Nova Consultant Inc.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Albert Christie Jr</t>
+          <t>Kisha Garraway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3472368685</v>
+        <v>9176029152</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cvillage1@mcom.com</t>
+          <t>kisha@novaconsultant.com</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45473</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10/30/2021;10/30/2021</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2634,7 +2636,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>95-15 Sutphin Blvd</t>
+          <t>178-40 146th Terrace</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2649,16 +2651,16 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://www.exquisiteconstructionny.com</t>
+          <t>http://www.novaconsultant.com</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Exquisite Construction Corp is available for all your remodeling and construction needs, whether itÂ¿s time for a kitchen or bathroom remodeling project. Exquisite Construction services clients throughout the NYC area.     Exquisite Construction was founded with a strong belief in traditional business values. We approach each business endeavor with an ambition to build relationships, deliver the highest quality projects, and feel a sense of pride and accomplishments upon job completion. From the initial client meeting to job completion, Exquisite Construction is accountable to our customers throughout the process.     Our staff provides clients with superior design and service. Exquisite ConstructionÂ¿s team will remain on the job site until every phase of the construction is complete and meets with the clientÂ¿s satisfaction.     Whether youÂ¿re looking to do interior or exterior work or need a little of both, Exquisite Construction can take care of your needs. We can help you with design ideas, color consultation and to evaluate which changes and upgrades are right for you. If youÂ¿re looking for a reliable, qualified, full service contractor, youÂ¿ll be glad you found us. Exquisite Construction will complete your project professionally, in a timely manner and with attention to detail.</t>
+          <t>Training and developmental for the hospitality industry.</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2670,22 +2672,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Unique Construction &amp; Home Improvement Inc</t>
+          <t>P.E.I. Consultants, LLC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amarik Singh</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>347-553-7720</t>
-        </is>
+          <t>Hugues Paul</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7182889556</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mekaunique@yahoo.com</t>
+          <t>Huguespaul718@gmail.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2694,23 +2694,19 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>144-34 Hillside Avenue</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1st Floor</t>
-        </is>
-      </c>
+          <t>175-20 Wexford Terrace Apt 5T</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -2722,46 +2718,42 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>11435</v>
+        <v>11432</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>WE PERFORM ALL KINDS OF WATERPROOFING, ROOFING MASONRY EXTERIOR &amp; REPAIR, CONCRETE GRINDING, POINTING, WINDOW LINTELS &amp; SILL REPLACEMENT TERRA COTTA AND CMU WORK.</t>
+          <t>Special Inspections of mechanical systems for commercial buildings.</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sunshine Heating</t>
+          <t>Genrus Corp.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gerald Chase</t>
+          <t>Nigel Marcellin</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7182628337</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Sunshineheating@yahoo.com</t>
-        </is>
-      </c>
+        <v>7182915789</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44104</v>
+        <v>43920</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2770,7 +2762,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>104-73 165th Street</t>
+          <t>107-50 Guy R. Brewer Blvd.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2787,58 +2779,60 @@
       <c r="L35" t="n">
         <v>11433</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://www.pavingstalbans.com</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Heating and plumbing.</t>
+          <t>Genrus Corp is a construction firm specializing in the following construction services; excavation, trucking, concrete and asphalt paving, sheeting, demolition and erosion control. We are a full, self performing service company with over 15 years construction management and engineering experience and expertise.</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Education.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NY Building Systems Consultant Inc</t>
+          <t>Deutscher &amp; Daughter, Inc.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Md Islam</t>
+          <t>Rebecca Deutscher</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9174035425</v>
+        <v>7182915600</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mdislam@nybscinc.com</t>
+          <t>rdeutscher@dddoors.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>44741</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9011 149th Street</t>
+          <t>105-07 150th St</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Suite 4E</t>
+          <t>P.O. Box 350306</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2856,46 +2850,48 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://www.nybscinc.com</t>
+          <t>http://dddoors.com</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NY Building Systems Consultant Inc (NYBSC) is a comprehensive engineering and energy consulting firm offering full services in building and system design, energy efficiency, commissioning, project management, cogeneration, and testing and diagnostic.</t>
+          <t>Supply of doors, frames and architectural and electronic door hardware, door and hardware installation if requested.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>E.H. Fire Suppression Company, Inc.</t>
+          <t>Leru Multi Services Agency LLC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Everton Howell Jr.</t>
+          <t>Handel Edwards EA, PhD</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7187383900</v>
+        <v>7182971790</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Everton.howell@ehfiresuppression.com</t>
+          <t>Sharlene.leru@gmail.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>44956</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>04/29/2023;04/29/2023</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2904,7 +2900,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>112-31 Guy R. Brewer Blvd.</t>
+          <t>114-02 Guy R Brewer Blvd</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2919,48 +2915,46 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>11433</v>
+        <v>11434</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Contracting services for fire suppression (sprinkler services).</t>
+          <t>Provide Speech and Language therapy  Physical, Occupational,   Psycho social to special needs, children and parents Service. Consultation for Autism,FAPC, IEP, Functional skills and social Skills Development.</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Real Estate &amp; Housing.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New Safeway Contracting Corp</t>
+          <t>Asif Singh Corp.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sharanjit Kaur</t>
+          <t>Asif Singh</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7186580911</v>
+        <v>3474185459</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>newsafeway1@yahoo.com</t>
+          <t>Asifsingh33@gmail.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>08/30/2022;08/30/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>44803</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2969,7 +2963,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>175-14 Hillside Ave</t>
+          <t>129-21 154th Street</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2984,57 +2978,55 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>New Safeway Contracting specializes in the ability to handle the may many various responsibilities to complete your construction projects. We are available for all of your construction needs, interior design build out, install bridge and pipe scaffolds, waterproofing, brick work and new ground construction.   We are fully licensed, bonded and insured contractors in New York.</t>
+          <t>ASIF SINGH CORP is a construction company which does remodeling work for both commercial and residential buildings.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nova Consultant Inc.</t>
+          <t>A &amp; V Steel, LLC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kisha Garraway</t>
+          <t>Vishal Jamnaprasad</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9176029152</v>
+        <v>7186746677</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kisha@novaconsultant.com</t>
+          <t>avsteelcon@aol.com</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>10/30/2021;10/30/2021</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>44011</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>178-40 146th Terrace</t>
+          <t>144-21 106th Ave</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -3049,46 +3041,46 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>http://www.novaconsultant.com</t>
-        </is>
-      </c>
+        <v>11435</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Training and developmental for the hospitality industry.</t>
+          <t>We specialize in structural and miscellaneous steel fabrication and installation.</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |IT.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Genrus Corp.</t>
+          <t>E.H. Fire Suppression Company, Inc.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nigel Marcellin</t>
+          <t>Everton Howell Jr.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7182915789</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>7187383900</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Everton.howell@ehfiresuppression.com</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>43920</v>
+        <v>44956</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3097,7 +3089,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>107-50 Guy R. Brewer Blvd.</t>
+          <t>112-31 Guy R. Brewer Blvd.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -3114,39 +3106,35 @@
       <c r="L40" t="n">
         <v>11433</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>http://www.pavingstalbans.com</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Genrus Corp is a construction firm specializing in the following construction services; excavation, trucking, concrete and asphalt paving, sheeting, demolition and erosion control. We are a full, self performing service company with over 15 years construction management and engineering experience and expertise.</t>
+          <t>Contracting services for fire suppression (sprinkler services).</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Asif Singh Corp.</t>
+          <t>Enterprise Solution Products Inc.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Asif Singh</t>
+          <t>Wayne Corion</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3474185459</v>
+        <v>2016789200</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Asifsingh33@gmail.com</t>
+          <t>info@enterprisesolutionproducts.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3155,19 +3143,23 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44803</v>
+        <v>44894</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>129-21 154th Street</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>153-30 89th Ave</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Suite 1116</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3179,60 +3171,62 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>11432</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://enterprisesolutionproducts.com</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ASIF SINGH CORP is a construction company which does remodeling work for both commercial and residential buildings.</t>
+          <t>Enterprise Solution products is a re-seller of copiers, printers, computer solutions, whiteboard, supplies and office furniture. We provide outright purchase or leasing to our end clients to acquire these equipment.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Safety/Security &amp; Legal. </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Deutscher &amp; Daughter, Inc.</t>
+          <t>718 Consulting Inc.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rebecca Deutscher</t>
+          <t>Dale Davids</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7182915600</v>
+        <v>6465528141</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rdeutscher@dddoors.com</t>
+          <t>dale.davids@yahoo.com</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>44712</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>105-07 150th St</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>P.O. Box 350306</t>
-        </is>
-      </c>
+          <t>172-19 Baisley Blvd.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3244,41 +3238,41 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://dddoors.com</t>
+          <t>http://www.facebook.com/dale.davids</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Supply of doors, frames and architectural and electronic door hardware, door and hardware installation if requested.</t>
+          <t>Insurance; Property and Casualty; Business insurance; General Liability</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A &amp; V Steel, LLC</t>
+          <t>Rocky Sheet Metal, Inc.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Vishal Jamnaprasad</t>
+          <t>Roque Ramallo</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7186746677</v>
+        <v>7185293700</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>avsteelcon@aol.com</t>
+          <t>rockysheetmetal@gmail.com</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3287,16 +3281,16 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44011</v>
+        <v>44315</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>144-21 106th Ave</t>
+          <t>14716 Rockaway Blvd.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3311,37 +3305,37 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>11435</v>
+        <v>11436</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>We specialize in structural and miscellaneous steel fabrication and installation.</t>
+          <t>Fabrication and installation of sheet metal ducts for air conditioning, air conditioning installation, refrigerant piping, insulation, rooftop air conditioners installation and removal, split air conditioners installed.</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jonathan Metal &amp; Glass LTD</t>
+          <t>SAFER Training Inc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wilford Smith</t>
+          <t>Dwayne Stewart</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7188468000</v>
+        <v>7189388892</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>wilfred@jmg-nyc.com</t>
+          <t>dwayne@safertraining.net</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3350,7 +3344,7 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44012</v>
+        <v>43768</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3359,7 +3353,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>178-18 107th Street</t>
+          <t>117-32 144th Street</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3374,41 +3368,43 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>11433</v>
+        <v>11436</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://www.jmg-nyc.com</t>
+          <t>http://www.safertraining.net</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>We are an architectural metal and glass company.</t>
+          <t>SAFER Training, Inc. offers a variety of safety classes and In-Service training curriculum's. CPR, First Aid and Lifeguarding courses are all available.</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B N Restoration Inc.</t>
+          <t>CTS Logistics Group</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zarak Chaudhary</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>7188710161</v>
+          <t>Gabriel Gorre</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>718-995-9560</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>zarakch@bnrestoration.com</t>
+          <t>ggorre@ctslogi.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3417,23 +3413,19 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45291</v>
+        <v>44408</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>167-10 South Conduit Blvd.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Suite 103</t>
-        </is>
-      </c>
+          <t>167-43 148th Avenue</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3447,59 +3439,55 @@
       <c r="L45" t="n">
         <v>11434</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>http://www.bnrestoration.com</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>General Contractors  FaÃ§ade restoration  Historic preservations</t>
+          <t>CTS provides freight forwarding and logistics services around the world, including trucking services, ocean freight services, and air freight services, among others. We handle the documentation, delivery coordination, and other related services necessary for our customers to ship goods throughout the globe.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Leru Multi Services Agency LLC</t>
+          <t>LUMENS NY CORP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Handel Edwards EA, PhD</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>7182971790</v>
+          <t>Danny Ramroop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>516-400-6149</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sharlene.leru@gmail.com</t>
+          <t>danny@lumensny.com</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>04/29/2023;04/29/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45291</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>114-02 Guy R Brewer Blvd</t>
+          <t>106-15 Sutphin Blvd</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3514,37 +3502,41 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>11435</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://www.electricalnassau.com</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Provide Speech and Language therapy  Physical, Occupational,   Psycho social to special needs, children and parents Service. Consultation for Autism,FAPC, IEP, Functional skills and social Skills Development.</t>
+          <t>Electrical Firm and wholesale hardware</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Enterprise Solution Products Inc.</t>
+          <t>V &amp; J General Construction NY Inc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wayne Corion</t>
+          <t>Vishavjeet Singh</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2016789200</v>
+        <v>3476052439</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>info@enterprisesolutionproducts.com</t>
+          <t>jandvgen@gmail.com</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3553,23 +3545,19 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44894</v>
+        <v>44925</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>153-30 89th Ave</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Suite 1116</t>
-        </is>
-      </c>
+          <t>130-26 144th Street</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3583,62 +3571,62 @@
       <c r="L47" t="n">
         <v>11432</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>http://enterprisesolutionproducts.com</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Enterprise Solution products is a re-seller of copiers, printers, computer solutions, whiteboard, supplies and office furniture. We provide outright purchase or leasing to our end clients to acquire these equipment.</t>
+          <t>General Construction</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LUMENS NY CORP</t>
+          <t>JMR Consulting Services</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Danny Ramroop</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>516-400-6149</t>
-        </is>
+          <t>Judith Rapley</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3475109131</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>danny@lumensny.com</t>
+          <t>Judith@judithrapley.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>45291</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>04/29/2022;04/29/2022</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>106-15 Sutphin Blvd</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>135-25 Hoover Avenue</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3654,12 +3642,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://www.electricalnassau.com</t>
+          <t>http://www.judithrapley.com</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Electrical Firm and wholesale hardware</t>
+          <t>JMR Consulting Services provides consulting solutions through strategic planning, professional development, personal coaching and leadership development and training. Life coaching addressing interpersonal communication and self-care are also addressed. Professional services and learning development are key offerings.</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3671,20 +3659,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>V &amp; J General Construction NY Inc</t>
+          <t>Big L Enterprises, Inc.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vishavjeet Singh</t>
+          <t>Kevin Leak</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3476052439</v>
+        <v>7182165683</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jandvgen@gmail.com</t>
+          <t>BigLhomeimprovement@gmail.com</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3693,16 +3681,16 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44925</v>
+        <v>44165</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>130-26 144th Street</t>
+          <t>140-60 161st Street</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3717,12 +3705,12 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>General Construction</t>
+          <t>Big L Enterprises is a construction company specializing in brick work, siding, stucco interior and exterior, windows, roofing, kitchen, bathroom, wood floors, tile and concrete work. We do commercial and residential homes.</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3734,41 +3722,47 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WINDSOR ELECTRICAL CONTRACTING, INC.</t>
+          <t>Connective Strategies Associates, Inc.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pramanand Rambharose</t>
+          <t>Tyquana Henderson-Parsons</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7188506523</v>
+        <v>7186588888</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Andyr@windsornyc.com</t>
+          <t>tyquana@csainc.nyc</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>44711</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>01/31/2020;01/31/2020</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>95-01 Brisbin Street</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>9050 Parson Blvd</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Suite 405</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3780,41 +3774,41 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>11435</v>
+        <v>11432</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://www.windsornyc.com</t>
+          <t>http://www.connectionstrategies.com</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Electrical Contracting Services:- Power, lighting, low voltage, traffic signals, street lighting &amp; utility.</t>
+          <t>Connective Strategies Associates Inc is a full service community and governmental relations firm with extensive experience and exceptional contacts in and around New York State. We have represented and serviced a range of clients including political candidates, elected officials, non-profits, philanthropists and other government relations firms. Connective Strategies Associates Inc specializes in grassroots community organizing for political candidates, land use and issue oriented campaigns. We also specialize in overall strategic development and constituency management.</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance.  |Natural Resources/Environmetal.  |Personal Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vera Security Services, Inc.</t>
+          <t>WINDSOR ELECTRICAL CONTRACTING, INC.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Daniel Inneh</t>
+          <t>Pramanand Rambharose</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7187854196</v>
+        <v>7188506523</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>info@verasecurityservices.com</t>
+          <t>Andyr@windsornyc.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3823,16 +3817,16 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44650</v>
+        <v>44711</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>147-04 Rockaway Blvd.</t>
+          <t>95-01 Brisbin Street</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3847,55 +3841,59 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>11436</v>
+        <v>11435</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://www.verasecurityservices.com</t>
+          <t>http://www.windsornyc.com</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Provider of uniformed armed and unarmed; plain clothes security guard services.</t>
+          <t>Electrical Contracting Services:- Power, lighting, low voltage, traffic signals, street lighting &amp; utility.</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Heath Services. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Heartmenders Magazine Media Inc</t>
+          <t>Vera Security Services, Inc.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Okechukwu Okugo</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>929-245-7172</t>
-        </is>
+          <t>Daniel Inneh</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>7187854196</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>heartmendersmagazine@yahoo.com</t>
+          <t>info@verasecurityservices.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EBE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>155-11 115th Avenue</t>
+          <t>147-04 Rockaway Blvd.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3910,59 +3908,55 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>11434</v>
+        <v>11436</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://www.heartmenders.net</t>
+          <t>http://www.verasecurityservices.com</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Heartmenders Magazine Media Inc. is information media, publishing, advertising, and a real estate marketing company.</t>
+          <t>Provider of uniformed armed and unarmed; plain clothes security guard services.</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Heath Services.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Network of Patrols, Inc.</t>
+          <t>Heartmenders Magazine Media Inc</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Victor Adodo</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>7185584041</v>
+          <t>Okechukwu Okugo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>929-245-7172</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>nwpatrols@verizon.net</t>
+          <t>heartmendersmagazine@yahoo.com</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>BLACK</t>
-        </is>
-      </c>
+          <t>EBE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>148-07 Hillside Avenue</t>
+          <t>155-11 115th Avenue</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3977,16 +3971,16 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://www.networkofpatrols.com</t>
+          <t>http://www.heartmenders.net</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Network of Patrols, Inc. provides security personnel to contract signatories (General Contractors), as needed. Including, but not limited to, unarmed security guards, mobile patrol guards (6052CG &amp; 6.52FED).</t>
+          <t>Heartmenders Magazine Media Inc. is information media, publishing, advertising, and a real estate marketing company.</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3998,20 +3992,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KAW Business Management LLC</t>
+          <t>Network of Patrols, Inc.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kelvin Walter</t>
+          <t>Victor Adodo</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7185270370</v>
+        <v>7185584041</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Queens.NY@searsservices.com</t>
+          <t>nwpatrols@verizon.net</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4029,7 +4023,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>180-17 143rd Ave.</t>
+          <t>148-07 Hillside Avenue</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -4044,16 +4038,16 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://www.searsmaidservices.com/</t>
+          <t>http://www.networkofpatrols.com</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KAW Business Management LLC provides Janitorial and Custodial services for facilities. We specialize in janitorial management services. We also provide interior and exterior cleanings for new constructions (Pre and Post). Our expertise is in detailed tailored cleanings for private and public businesses. Our cleaning professionals have experience with a variety of cleaning projects, including commercial, office and residential cleaning. For home developers, renovators ,and contractors who need cleaning after a construction project, KAW business management offers excellent cleaning services. Once on the job, our staff will make any construction area attractive and ready to be seen by prospective buyers, realtors , and inspectors.</t>
+          <t>Network of Patrols, Inc. provides security personnel to contract signatories (General Contractors), as needed. Including, but not limited to, unarmed security guards, mobile patrol guards (6052CG &amp; 6.52FED).</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4065,36 +4059,38 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Test Force Corporation</t>
+          <t>KAW Business Management LLC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ellen Chernyak</t>
+          <t>Kelvin Walter</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2128199020</v>
+        <v>7185270370</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>echernyak@testforce.net</t>
+          <t>Queens.NY@searsservices.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>44864</v>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>184-27 Tudor Road</t>
+          <t>180-17 143rd Ave.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4109,16 +4105,16 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://www.testforce.net</t>
+          <t>http://www.searsmaidservices.com/</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>COMPUTER CONSULTING</t>
+          <t>KAW Business Management LLC provides Janitorial and Custodial services for facilities. We specialize in janitorial management services. We also provide interior and exterior cleanings for new constructions (Pre and Post). Our expertise is in detailed tailored cleanings for private and public businesses. Our cleaning professionals have experience with a variety of cleaning projects, including commercial, office and residential cleaning. For home developers, renovators ,and contractors who need cleaning after a construction project, KAW business management offers excellent cleaning services. Once on the job, our staff will make any construction area attractive and ready to be seen by prospective buyers, realtors , and inspectors.</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4193,20 +4189,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rocky Sheet Metal, Inc.</t>
+          <t>Big Bull Corp</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Roque Ramallo</t>
+          <t>Darius Alfred</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7185293700</v>
+        <v>7189254294</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rockysheetmetal@gmail.com</t>
+          <t>info@bigbullnyc.com</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4215,16 +4211,16 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44315</v>
+        <v>45076</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>14716 Rockaway Blvd.</t>
+          <t>147-04 176th street Ste 2E</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -4239,12 +4235,12 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>11436</v>
+        <v>11434</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Fabrication and installation of sheet metal ducts for air conditioning, air conditioning installation, refrigerant piping, insulation, rooftop air conditioners installation and removal, split air conditioners installed.</t>
+          <t>Big Bull Corp. is a full service general contracting firm, specializing in residential and commercial construction, servicing the public and private sectors.</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4256,29 +4252,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Big Bull Corp</t>
+          <t>2bFocused, Inc.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Darius Alfred</t>
+          <t>Simone Salmon</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7189254294</v>
+        <v>8453138345</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>info@bigbullnyc.com</t>
+          <t>support@2bfocused.com</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>45076</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12/30/2022;12/30/2022</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4287,7 +4285,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>147-04 176th street Ste 2E</t>
+          <t>18604 Nashville Blvd.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -4302,12 +4300,16 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>11413</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://2bfocused.com</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Big Bull Corp. is a full service general contracting firm, specializing in residential and commercial construction, servicing the public and private sectors.</t>
+          <t>Professional services and administrative support such as secretaries, word processors, proofreaders, transcriptionists, IT professionals, as well as, specialty areas such as cosmetologists, beauticians, photography services custodial support.</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4319,43 +4321,47 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2bFocused, Inc.</t>
+          <t>HRF Services Corp</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Simone Salmon</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>8453138345</v>
+          <t>Fahad Fateh</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>718-593-9460</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>support@2bfocused.com</t>
+          <t>fahadpe120@gmail.com</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>12/30/2022;12/30/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>18604 Nashville Blvd.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>107-34 156 Street</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Apt 1</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -4367,16 +4373,12 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>11413</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>https://2bfocused.com</t>
-        </is>
-      </c>
+        <v>11433</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Professional services and administrative support such as secretaries, word processors, proofreaders, transcriptionists, IT professionals, as well as, specialty areas such as cosmetologists, beauticians, photography services custodial support.</t>
+          <t>HRF Services Corp, established in 2008 has been providing full Engineering, Expediting &amp; Special Inspections, Quality Assurance / Quality Control Services to the Tri-State New York construction markets. HRF Services Corp meet all present and future needs of the Architectural/Engineering, Construction Manager, General Contractor and Property Owner Communities. At HRF Services Corp, we are dedicated and committed to full customer satisfaction. HRF Services Corp delivers quality-based services with keen attention to industry standards, integrity, honesty and total satisfaction in all our transactions with present and future customers.  Founded by Fahad Fateh PE, A NYS Professional Engineer of repute with over 10 years cognate experience in the field of QA/QC Engineering Design &amp; Inspections, Forensic/design and Material Laboratory Testing.</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4388,45 +4390,45 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HRF Services Corp</t>
+          <t>Inspire Faith Designs</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fahad Fateh</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>718-593-9460</t>
-        </is>
+          <t>Jovanna Greenidge</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7186353725</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>fahadpe120@gmail.com</t>
+          <t>Team@inspirefaithdesigns.com</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>45473</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>12/31/2020;12/31/2020</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>107-34 156 Street</t>
+          <t>17244 133rd Avenue</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Apt 1</t>
+          <t>Suite #6A</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4440,37 +4442,41 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>11434</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://www.inspirefaithdesigns.com</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>HRF Services Corp, established in 2008 has been providing full Engineering, Expediting &amp; Special Inspections, Quality Assurance / Quality Control Services to the Tri-State New York construction markets. HRF Services Corp meet all present and future needs of the Architectural/Engineering, Construction Manager, General Contractor and Property Owner Communities. At HRF Services Corp, we are dedicated and committed to full customer satisfaction. HRF Services Corp delivers quality-based services with keen attention to industry standards, integrity, honesty and total satisfaction in all our transactions with present and future customers.  Founded by Fahad Fateh PE, A NYS Professional Engineer of repute with over 10 years cognate experience in the field of QA/QC Engineering Design &amp; Inspections, Forensic/design and Material Laboratory Testing.</t>
+          <t>We are a full service custom print studio. Our services includes: Graphic Design, Postcard and Flyer Printing, Business Cards, Promotional items and Products, Digital Marketing, Party Favors, Christian Apparel and Gifts, Logo Design, Ticket Printing, NCR Forms Printing, Photo Enlargements &amp; Prints, Canvas Prints, Printing, Brand Identity, HTML Email/ Newsletter templates, Catalog &amp; Brochure design and Package design.</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Inspire Faith Designs</t>
+          <t>Gelstone Inc.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jovanna Greenidge</t>
+          <t>Lisa Livingstone</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7186353725</v>
+        <v>7189624304</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Team@inspirefaithdesigns.com</t>
+          <t>Gelstonenyc@gmail.com</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4480,7 +4486,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12/31/2020;12/31/2020</t>
+          <t>11/29/2022;11/29/2022</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4490,12 +4496,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17244 133rd Avenue</t>
+          <t>147-04 176th Street</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Suite #6A</t>
+          <t>Suite 2E</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4513,37 +4519,37 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://www.inspirefaithdesigns.com</t>
+          <t>http://www.gelstone.com</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>We are a full service custom print studio. Our services includes: Graphic Design, Postcard and Flyer Printing, Business Cards, Promotional items and Products, Digital Marketing, Party Favors, Christian Apparel and Gifts, Logo Design, Ticket Printing, NCR Forms Printing, Photo Enlargements &amp; Prints, Canvas Prints, Printing, Brand Identity, HTML Email/ Newsletter templates, Catalog &amp; Brochure design and Package design.</t>
+          <t>Gelstone Inc is a full-service contracting firm which also provides solutions for all your plumbing, heating repairs and hardware replacement. Our area of specialty also includes all mechanical repairs, plumbing maintenance, heating and ventilation repairs and solutions.</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Connective Strategies Associates, Inc.</t>
+          <t>Sullivan-Hernandez Agency, Inc.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tyquana Henderson-Parsons</t>
+          <t>Yolanda Sullivan</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7186588888</v>
+        <v>9178333842</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tyquana@csainc.nyc</t>
+          <t>ysullivan@shagency.org</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4553,7 +4559,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>01/31/2020;01/31/2020</t>
+          <t>01/30/2022;01/30/2022</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4563,12 +4569,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9050 Parson Blvd</t>
+          <t>161 - 15 Rockaway Blvd.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Suite 405</t>
+          <t>Ste. 109</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4582,59 +4588,57 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://www.connectionstrategies.com</t>
+          <t>http://www.shagency.org</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Connective Strategies Associates Inc is a full service community and governmental relations firm with extensive experience and exceptional contacts in and around New York State. We have represented and serviced a range of clients including political candidates, elected officials, non-profits, philanthropists and other government relations firms. Connective Strategies Associates Inc specializes in grassroots community organizing for political candidates, land use and issue oriented campaigns. We also specialize in overall strategic development and constituency management.</t>
+          <t>Insurance Risk, Healthcare, Compliance and Billing Services</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal.  |Personal Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAFER Training Inc</t>
+          <t>Test Force Corporation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dwayne Stewart</t>
+          <t>Ellen Chernyak</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7189388892</v>
+        <v>2128199020</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>dwayne@safertraining.net</t>
+          <t>echernyak@testforce.net</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="n">
-        <v>43768</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>117-32 144th Street</t>
+          <t>184-27 Tudor Road</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4649,21 +4653,21 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>11436</v>
+        <v>11432</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://www.safertraining.net</t>
+          <t>http://www.testforce.net</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SAFER Training, Inc. offers a variety of safety classes and In-Service training curriculum's. CPR, First Aid and Lifeguarding courses are all available.</t>
+          <t>COMPUTER CONSULTING</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
@@ -4732,45 +4736,49 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Queens Surgical Corporation</t>
+          <t>Abrahams Consulting LLC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Krishna Ramroop</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>7188492030</v>
+          <t>Angela Abrahams-Gibson</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>718-524-7933</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>queenssurgical@gmail.com</t>
+          <t>agibson@abrahamsconsulting.com</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>44560</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>08/30/2021;08/30/2021</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>106-15 Sutphin Blvd</t>
+          <t>172-61 Highland Avenue</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4785,63 +4793,59 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>11435</v>
+        <v>11432</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://www.queenssurgicalcorp.com</t>
+          <t>https://www.abrahamsconsulting.com</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Wholesale supplier of all surgical supplies, laboratory and medical equipment.  Sells locally and internationally.  Open Monday thru Friday - 9am - 5pm.</t>
+          <t>Abrahams Consulting core competencies revolve around the resale of Information Technology Hardware, software and peripherals, Niche solutions which focus on  Network Security, Storage and Networking. Additionally, Managed services and Technical staffing enable us to meet the service needs of our clients.  Our goal remains  the ability to save time for our clients while allowing them the opportunity to glean the greatest return on investment possible.</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing.  |Safety/Security &amp; Legal.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Abrahams Consulting LLC</t>
+          <t>Al-Arsh Construction Corp</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Angela Abrahams-Gibson</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>718-524-7933</t>
-        </is>
+          <t>Ghulam Murtaza</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>7184315203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>agibson@abrahamsconsulting.com</t>
+          <t>alarshny@yahoo.com</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>08/30/2021;08/30/2021</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45015</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>172-61 Highland Avenue</t>
+          <t>8825 148 st 4S</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4856,21 +4860,17 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>11432</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>https://www.abrahamsconsulting.com</t>
-        </is>
-      </c>
+        <v>11435</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Abrahams Consulting core competencies revolve around the resale of Information Technology Hardware, software and peripherals, Niche solutions which focus on  Network Security, Storage and Networking. Additionally, Managed services and Technical staffing enable us to meet the service needs of our clients.  Our goal remains  the ability to save time for our clients while allowing them the opportunity to glean the greatest return on investment possible.</t>
+          <t>Al-Arsh Construction Corp. has been a dependable name in construction since 2005. Al-Arsh is a Class A General Contractor who specializes in the construction of commercial and residential buildings. We are committed to providing the customer with the highest quality construction in order to obtain a satisfied customer.    Our services range from kitchen remodeling, bathroom remodeling, basement remodeling, installing cabinetry, installing flooring, residential acoustical ceiling installation, painting, ceramic tile, siding, drywall and decks.    We pride ourselves of great craftsmanship and quality. Our projects are done in a neat and timely manner and within budget. Our estimates are free and are done by the owner himself.</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Real Estate &amp; Housing.  |Safety/Security &amp; Legal.  |IT. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Transportation. </t>
         </is>
       </c>
     </row>
@@ -4940,20 +4940,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dependable Home Care, Inc.</t>
+          <t>Abraham's Transportation Service, Inc.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Thomas Sobczak</t>
+          <t>Abraham Richards</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7184996066</v>
+        <v>7187393994</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>dr.taylor@dependablehomehealth.com</t>
+          <t>abestransit@verizon.net</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45626</v>
+        <v>43768</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4971,14 +4971,10 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9050 Parsons Boulevard, Suite 404</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2nd Floor</t>
-        </is>
-      </c>
+          <t>144-15 101st Avenue</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -4990,16 +4986,16 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>11432</v>
+        <v>11435</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://www.dependablehomehealth.com</t>
+          <t>http://www.abestransportation.com</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Dependable Home Care, Inc. a Licensed Home Care Services Agency providing Registered Nurses, LPN's, Physical Therapists, Occupational Therapists, Speech Therapists, Recreational Therapists, MSW's, Nutritionists, Home Health Aides, Personal Care Aides, Homemakers and Housekeepers to patients, hospitals and healthcare facilities.</t>
+          <t>We provide transporation shuttle &amp; charter service to college, public, corporations, schools, nursing homes and hospital's etc. In our fleet we have from 9 to 40 passenger buses.</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5011,22 +5007,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bartlett Dairy Inc.</t>
+          <t>Dependable Home Care, Inc.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Thomas Malave</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>718-658-2299</t>
-        </is>
+          <t>Thomas Sobczak</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7184996066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>eburns@bartlettny.com</t>
+          <t>dr.taylor@dependablehomehealth.com</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5035,21 +5029,21 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44073</v>
+        <v>45626</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>90-04 161st Street</t>
+          <t>9050 Parsons Boulevard, Suite 404</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Suite 609</t>
+          <t>2nd Floor</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5067,12 +5061,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://www.bartlettny.com</t>
+          <t>http://www.dependablehomehealth.com</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Distributor of dairy and other food products to bodegas, restaurants, child care and senior citizen centers, food service, and supermarket chains in the tri-state area. In addition, we serve the New York City schools in all 5 boroughs.</t>
+          <t>Dependable Home Care, Inc. a Licensed Home Care Services Agency providing Registered Nurses, LPN's, Physical Therapists, Occupational Therapists, Speech Therapists, Recreational Therapists, MSW's, Nutritionists, Home Health Aides, Personal Care Aides, Homemakers and Housekeepers to patients, hospitals and healthcare facilities.</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5084,20 +5078,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Stams Construction Corp</t>
+          <t>Bartlett Dairy Inc.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Albert Mullen</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>3479521003</v>
+          <t>Thomas Malave</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>718-658-2299</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>albert.mullen62@gmail.com</t>
+          <t>eburns@bartlettny.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5106,19 +5102,23 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44591</v>
+        <v>44073</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>105-30 171st street</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>90-04 161st Street</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Suite 609</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -5130,12 +5130,16 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>11432</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://www.bartlettny.com</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Interior construction.</t>
+          <t>Distributor of dairy and other food products to bodegas, restaurants, child care and senior citizen centers, food service, and supermarket chains in the tri-state area. In addition, we serve the New York City schools in all 5 boroughs.</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5147,31 +5151,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Live Home Live Longer Africa</t>
+          <t>Stams Construction Corp</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pamela Hazel</t>
+          <t>Albert Mullen</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9294210251</v>
+        <v>3479521003</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>advocatepam@yahoo.com</t>
+          <t>albert.mullen62@gmail.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>06/29/2023;06/29/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>44591</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5180,7 +5182,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>136-11 Farmers Boulvard</t>
+          <t>105-30 171st street</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5195,12 +5197,12 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>11434</v>
+        <v>11433</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>My business is an employment agency. Home Health Aides are dispatched to the clients home to provide needed care. Some of the services are assistance with mobility, food preparation, ensuring the clients are clean and groomed and ensuring a clean and safe environment.</t>
+          <t>Interior construction.</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5283,43 +5285,43 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aurora Electric Inc.</t>
+          <t>JCW Import and Export Inc.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Veronica Rose</t>
+          <t>Jin Wang</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7186567413</v>
+        <v>7184414900</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>osteele@auroraelectric.org</t>
+          <t>jcwieinc@yahoo.com</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>07/31/2020;07/31/2020</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>141 Federal Circle</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>JFK International Airport, Bldg 141</t>
-        </is>
-      </c>
+          <t>108-20 180th Street</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -5331,16 +5333,12 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>11430</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>http://www.auroraelectric.org</t>
-        </is>
-      </c>
+        <v>11433</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Electrical installations and maintenance, data communications.</t>
+          <t>Kitchenware</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5352,40 +5350,38 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JCW Import and Export Inc.</t>
+          <t>MO-SOLUTIONS, INC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jin Wang</t>
+          <t>Momo Kamara</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7184414900</v>
+        <v>8005311353</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jcwieinc@yahoo.com</t>
+          <t>mkamara@mosolutionsinc.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>07/31/2020;07/31/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>108-20 180th Street</t>
+          <t>14022 173RD street</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5400,12 +5396,16 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>11434</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://www.mosolutionsinc.com</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Kitchenware</t>
+          <t>At MO-SOLUTIONS, INC. We provide full-janitorial services, office cleaning, window cleaning, pressure washing and post construction clean ups.</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6022,20 +6022,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Akhtar Construction Co., Inc.</t>
+          <t>MA Home Improvement Inc.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Akhtar Newar</t>
+          <t>Matilal Nath</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7187395651</v>
+        <v>7185514512</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>akhtarconstruction@aol.com</t>
+          <t>nmatilal@gmail.com</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45351</v>
+        <v>44103</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>148-05 A Hillside Avenue</t>
+          <t>172-16 Grand Central Parkway</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -6068,12 +6068,12 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>11435</v>
+        <v>11432</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>General construction for single, multifamily building and apartments.</t>
+          <t>Construction like masonry, drywall, framing, carpentry, painting, water proofing, etc.</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6085,20 +6085,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MA Home Improvement Inc.</t>
+          <t>M.S. Savani Architect P.C.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Matilal Nath</t>
+          <t>Manish Savani</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7185514512</v>
+        <v>7186576222</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>nmatilal@gmail.com</t>
+          <t>mss@mssarch.com</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -6116,10 +6116,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>172-16 Grand Central Parkway</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>148-45 Hillside Avenue</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Suite 201</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6131,12 +6135,12 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>11432</v>
+        <v>11435</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Construction like masonry, drywall, framing, carpentry, painting, water proofing, etc.</t>
+          <t>Mss + A is an Architectural Firm with a focus on Design and Planning services for Commercial and Residential projects coupled with deep Technical expertise. Its current body of work ranges from High Rise Residential and Hospitality projects in NYC metro to Private Residences on Long Island.  Wide experience with Complex Programming, New Construction and Major Renovations.</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6148,45 +6152,43 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>M.S. Savani Architect P.C.</t>
+          <t>The Language Shop</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Manish Savani</t>
+          <t>Deborah Lockhart</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7186576222</v>
+        <v>6462454129</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mss@mssarch.com</t>
+          <t>deborah.lockhart@thelanguageshop.org</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>44134</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>12/30/2020;12/30/2020</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>148-45 Hillside Avenue</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Suite 201</t>
-        </is>
-      </c>
+          <t>114-26 146th Street</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6198,12 +6200,16 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>11435</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>11436</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://www.thelanguageshop.org</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Mss + A is an Architectural Firm with a focus on Design and Planning services for Commercial and Residential projects coupled with deep Technical expertise. Its current body of work ranges from High Rise Residential and Hospitality projects in NYC metro to Private Residences on Long Island.  Wide experience with Complex Programming, New Construction and Major Renovations.</t>
+          <t>The Language Shop provides Translation, Interpreting, Editing, Proofreading, Transcription, Voice overs and Desktop Publishing.</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6215,40 +6221,38 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Language Shop</t>
+          <t>MOHAN'S PRECAST USA, INC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Deborah Lockhart</t>
+          <t>Vince Mohan</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6462454129</v>
+        <v>7187399199</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>deborah.lockhart@thelanguageshop.org</t>
+          <t>mohansprecast@yahoo.com</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>12/30/2020;12/30/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>114-26 146th Street</t>
+          <t>95-28 150th Street</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -6263,18 +6267,14 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>11436</v>
+        <v>11435</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://www.thelanguageshop.org</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>The Language Shop provides Translation, Interpreting, Editing, Proofreading, Transcription, Voice overs and Desktop Publishing.</t>
-        </is>
-      </c>
+          <t>https://mohansprecast.com/</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
           <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
@@ -6284,20 +6284,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MOHAN'S PRECAST USA, INC</t>
+          <t>Magdad, Inc.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vince Mohan</t>
+          <t>Melford Griffiths</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7187399199</v>
+        <v>7189491548</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>mohansprecast@yahoo.com</t>
+          <t>magdadinc@msn.com</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6306,16 +6306,16 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45107</v>
+        <v>43920</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>95-28 150th Street</t>
+          <t>168-26 119th Avenue</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -6330,14 +6330,14 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>11435</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>https://mohansprecast.com/</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>11434</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>The company specializes in installation and service of HVAC equipment, commercial refrigeration, icemakers, dishwashers, kitchen and Hobart equipment, sales and supplies of commercial dishwasher cleaning chemicals. We also offer maintenance and service contracts.</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
           <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
@@ -6414,20 +6414,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Saint Andrew Installation</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>George Tait</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>7189491260</v>
+          <t>NYCMC Corp</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>718-593-9460</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>standrewsflooring@yahoo.com</t>
+          <t>info@nycmccorp.com</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6436,19 +6434,23 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44438</v>
+        <v>44377</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>117-39 Farmers Blvd.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>107-34 156th Street</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Suite 1</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6460,12 +6462,12 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>11412</v>
+        <v>11433</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Provide construction services specializing in flooring, drywall and carpentry.</t>
+          <t>Construction in Private and Public Sector</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6477,25 +6479,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BP Alliance Construction Services LLC</t>
+          <t>Saint Andrew Installation</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>William Booker</t>
+          <t>George Tait</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3478218386</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>7189491260</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>standrewsflooring@yahoo.com</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44742</v>
+        <v>44438</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6504,7 +6510,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>179-50 Selover Road</t>
+          <t>117-39 Farmers Blvd.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -6519,16 +6525,12 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>http://www.bpaconstruction.com</t>
-        </is>
-      </c>
+        <v>11412</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Environmental Site Assessments for single and mulit-family residential properties, lead-based paint inspections and remediation, lead-based paint dust wipe sampling and analysis, NYC DOHMH lead-based paint violations involving properties on which children under the age of 7 years with elevated blood lead levels (over 5 ug/dl) reside, mold sampling analysis, mold removal and remediation and asbestos air sampling and survyes.</t>
+          <t>Provide construction services specializing in flooring, drywall and carpentry.</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6540,31 +6542,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Focus Security Services Inc.</t>
+          <t>BP Alliance Construction Services LLC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EHIGIE AGHAHUWA</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>347-706-5232</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>FSSINCOFFICE@GMAIL.COM</t>
-        </is>
-      </c>
+          <t>William Booker</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3478218386</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45473</v>
+        <v>44742</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6573,14 +6569,10 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>157-11 Rockaway Blvd.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Suite 10</t>
-        </is>
-      </c>
+          <t>179-50 Selover Road</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6596,17 +6588,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://FOCUS SECURITY SERVICES INC</t>
+          <t>http://www.bpaconstruction.com</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>WATCH, GUARDS, &amp; PATROL</t>
+          <t>Environmental Site Assessments for single and mulit-family residential properties, lead-based paint inspections and remediation, lead-based paint dust wipe sampling and analysis, NYC DOHMH lead-based paint violations involving properties on which children under the age of 7 years with elevated blood lead levels (over 5 ug/dl) reside, mold sampling analysis, mold removal and remediation and asbestos air sampling and survyes.</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
@@ -6673,40 +6665,38 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Education.  |Finance &amp; Insurance.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Saiato Security, Inc.</t>
+          <t>Focus Security Services Inc.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Afotan Fadairo</t>
+          <t>EHIGIE AGHAHUWA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>718-616-9627</t>
+          <t>347-706-5232</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>saiatosecurityinc@gmail.com</t>
+          <t>FSSINCOFFICE@GMAIL.COM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>11/30/2024;11/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6715,10 +6705,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>140-09 173rd Street</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>157-11 Rockaway Blvd.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Suite 10</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6734,55 +6728,59 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>https://Saiatosecurityinc.com</t>
+          <t>http://FOCUS SECURITY SERVICES INC</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Saiato Security, Inc provides security and fire guard services to commercial, residential, educational, construction and government projects.</t>
+          <t>WATCH, GUARDS, &amp; PATROL</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Conemco Engineering, Inc.</t>
+          <t>Saiato Security, Inc.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Christina Cepin</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>6464916070</v>
+          <t>Afotan Fadairo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>718-616-9627</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jcompres@conemco.com</t>
+          <t>saiatosecurityinc@gmail.com</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>44864</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>11/30/2024;11/30/2024</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>87-42 148th Street</t>
+          <t>140-09 173rd Street</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -6797,16 +6795,16 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://www.conemco.com</t>
+          <t>https://Saiatosecurityinc.com</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>CONEMCO stands for construction and engineering management and consultants. It is a full-service engineering and construction management firm with experience in Structural Engineering, Civil Engineering: construction management and inspections; engineering cost, and scheduling.</t>
+          <t>Saiato Security, Inc provides security and fire guard services to commercial, residential, educational, construction and government projects.</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6818,42 +6816,38 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pyramid Safety &amp; Health Solutions, Inc.</t>
+          <t>Conemco Engineering, Inc.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Reagan Branch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>347-495-0728</t>
-        </is>
+          <t>Christina Cepin</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6464916070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>pshsoln@gmail.com</t>
+          <t>Jcompres@conemco.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>01/30/2021;01/30/2021</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>44864</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>147-09 88th Avenue, 1st floor</t>
+          <t>87-42 148th Street</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -6868,43 +6862,41 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>11432</v>
+        <v>11435</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>https://www.pyramidsoln.com</t>
+          <t>http://www.conemco.com</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Safety Management: Construction and general industry site safety and health inspections and audits; fire safety management of construction site; safety training classes. Industrial Hygiene - Air, bulb and personal exposure monitoring, noise, asbestos, Legionella, silica and other contaminants.  Environmental assessment - Lead in water and paint.</t>
+          <t>CONEMCO stands for construction and engineering management and consultants. It is a full-service engineering and construction management firm with experience in Structural Engineering, Civil Engineering: construction management and inspections; engineering cost, and scheduling.</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Motor Vehicle.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LH Reporting Service, Inc.</t>
+          <t>Aurora Electric Inc.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Larry Salazar</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>718-526-7100</t>
-        </is>
+          <t>Veronica Rose</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>7186567413</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>info@lhreporting.com</t>
+          <t>osteele@auroraelectric.org</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6920,10 +6912,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>88-36 Sutphin Boulevard</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>141 Federal Circle</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>JFK International Airport, Bldg 141</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -6935,43 +6931,41 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>11435</v>
+        <v>11430</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://LHReporting.com</t>
+          <t>http://www.auroraelectric.org</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>LH Reporting is a full-service court reporting agency covering hearings, arbitrations, depositions, and meetings for the legal industry and insurance companies as well as  contract work under the NYC DCAS contract.   We off real-time reporting, videoconferencing and transcription.</t>
+          <t>Electrical installations and maintenance, data communications.</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Halogen Global Security Services Inc.</t>
+          <t>Akhtar Construction Co., Inc.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Augustine Udom</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>347-679-5743</t>
-        </is>
+          <t>Akhtar Newar</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7187395651</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>halogenglobal@yahoo.com</t>
+          <t>akhtarconstruction@aol.com</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6980,16 +6974,16 @@
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44227</v>
+        <v>45351</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>11946  147th Street</t>
+          <t>148-05 A Hillside Avenue</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -7004,55 +6998,59 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>11436</v>
+        <v>11435</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Halogen Global Security Services is a Watch Guard Patrol Agency. We provide security for businesses and individuals. We provide security for construction companies and also cover events. We provide flagmen and general security as required by the industry.</t>
+          <t>General construction for single, multifamily building and apartments.</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Reshpal Singh</t>
+          <t>Pyramid Safety &amp; Health Solutions, Inc.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Reshpal Singh</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>6465239238</v>
+          <t>Reagan Branch</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>347-495-0728</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>reshpal0711@aol.com</t>
+          <t>pshsoln@gmail.com</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="n">
-        <v>45045</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>01/30/2021;01/30/2021</t>
+        </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>85-51 164th Street</t>
+          <t>147-09 88th Avenue, 1st floor</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -7069,53 +7067,57 @@
       <c r="L99" t="n">
         <v>11432</v>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>https://www.pyramidsoln.com</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>repair and improvement</t>
+          <t>Safety Management: Construction and general industry site safety and health inspections and audits; fire safety management of construction site; safety training classes. Industrial Hygiene - Air, bulb and personal exposure monitoring, noise, asbestos, Legionella, silica and other contaminants.  Environmental assessment - Lead in water and paint.</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Motor Vehicle.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Designs by Marty Grace Inc.</t>
+          <t>LH Reporting Service, Inc.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Terence Grace</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>6462080650</v>
+          <t>Larry Salazar</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>718-526-7100</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>martygrace164@aol.com</t>
+          <t>info@lhreporting.com</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="n">
-        <v>45076</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>164-46 Nadal Place</t>
+          <t>88-36 Sutphin Boulevard</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -7130,16 +7132,16 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>11433</v>
+        <v>11435</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://www.martygraceuniforms.com</t>
+          <t>http://LHReporting.com</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>My company manufactures a variety of apparel goods. We specialize in uniforms for major companies such as FedEx, UPS, USPS and others.</t>
+          <t>LH Reporting is a full-service court reporting agency covering hearings, arbitrations, depositions, and meetings for the legal industry and insurance companies as well as  contract work under the NYC DCAS contract.   We off real-time reporting, videoconferencing and transcription.</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7151,20 +7153,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Alumitech, Inc.</t>
+          <t>Halogen Global Security Services Inc.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Julio Sangurima</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>7187393785</v>
+          <t>Augustine Udom</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>347-679-5743</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>info@alumitech.biz</t>
+          <t>halogenglobal@yahoo.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7173,16 +7177,16 @@
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44956</v>
+        <v>44227</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>104-06 150th Street</t>
+          <t>11946  147th Street</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -7197,16 +7201,12 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>11435</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>http://www.alumitech.biz</t>
-        </is>
-      </c>
+        <v>11436</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Supply and install: aluminum and glass products. Storefronts, curtain walls, glass partitions, custom shower doors, herculite doors and more. Our products and work are as per the client request and as per General Contractors requirements on shop drawings and specs.</t>
+          <t>Halogen Global Security Services is a Watch Guard Patrol Agency. We provide security for businesses and individuals. We provide security for construction companies and also cover events. We provide flagmen and general security as required by the industry.</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7218,20 +7218,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CLARKE FABRICATORS, INC.</t>
+          <t>Reshpal Singh</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Carlston Clarke</t>
+          <t>Reshpal Singh</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7185231735</v>
+        <v>6465239238</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ccwelder@aol.com</t>
+          <t>reshpal0711@aol.com</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7240,16 +7240,16 @@
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44650</v>
+        <v>45045</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>121-05 Lakeview Blvd.</t>
+          <t>85-51 164th Street</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -7264,12 +7264,12 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>11434</v>
+        <v>11432</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Provide welding, HVAC piping onsite steel fabrication boiler installation and boiler repair</t>
+          <t>repair and improvement</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7281,20 +7281,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Magdad, Inc.</t>
+          <t>Designs by Marty Grace Inc.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Melford Griffiths</t>
+          <t>Terence Grace</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7189491548</v>
+        <v>6462080650</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>magdadinc@msn.com</t>
+          <t>martygrace164@aol.com</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7303,16 +7303,16 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>43920</v>
+        <v>45076</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>168-26 119th Avenue</t>
+          <t>164-46 Nadal Place</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -7327,35 +7327,41 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>11433</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>http://www.martygraceuniforms.com</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>The company specializes in installation and service of HVAC equipment, commercial refrigeration, icemakers, dishwashers, kitchen and Hobart equipment, sales and supplies of commercial dishwasher cleaning chemicals. We also offer maintenance and service contracts.</t>
+          <t>My company manufactures a variety of apparel goods. We specialize in uniforms for major companies such as FedEx, UPS, USPS and others.</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NYCMC Corp</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>718-593-9460</t>
-        </is>
+          <t>Alumitech, Inc.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Julio Sangurima</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>7187393785</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>info@nycmccorp.com</t>
+          <t>info@alumitech.biz</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7364,23 +7370,19 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44377</v>
+        <v>44956</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>107-34 156th Street</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Suite 1</t>
-        </is>
-      </c>
+          <t>104-06 150th Street</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -7392,50 +7394,50 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>11435</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>http://www.alumitech.biz</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Construction in Private and Public Sector</t>
+          <t>Supply and install: aluminum and glass products. Storefronts, curtain walls, glass partitions, custom shower doors, herculite doors and more. Our products and work are as per the client request and as per General Contractors requirements on shop drawings and specs.</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>New Genesis Pathfinder, LLC</t>
+          <t>CLARKE FABRICATORS, INC.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Diana Benjamin</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>718-400-6171</t>
-        </is>
+          <t>Carlston Clarke</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>7185231735</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>diana@newgenesispathfinder.com</t>
+          <t>ccwelder@aol.com</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>11/30/2024;11/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>44650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -7444,7 +7446,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>242-24 130th Rd</t>
+          <t>121-05 Lakeview Blvd.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -7459,41 +7461,37 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>11422</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>http://www.newgenesispathfinder.com</t>
-        </is>
-      </c>
+        <v>11434</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Consulting company providing services to small business, manage compliance monitoring, capacity building Government navigation assistance and Supplier diversity initiatives.</t>
+          <t>Provide welding, HVAC piping onsite steel fabrication boiler installation and boiler repair</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Safety/Security &amp; Legal.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lifestyle Awards &amp; Promotional Products</t>
+          <t>SCE Detailing Group, Inc.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Teresa Johnson-Bishop</t>
+          <t>Lucky Damiao</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7183969842</v>
+        <v>7185029461</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>tbishop@lifestyleawards.net</t>
+          <t>Ldamiao@gmail.com</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7502,16 +7500,16 @@
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45015</v>
+        <v>44012</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>159-15 Jamaica Avenue</t>
+          <t>112-17 159th Street</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -7526,41 +7524,37 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>11432</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>http://www.lifestyleawards.net</t>
-        </is>
-      </c>
+        <v>11433</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Full service recognition company providing awards, plaques, trophies, certificates, medals, office supplies and a database with a million promotional products. We also engrave products such as name plates, desk plates, rubber stamps and small signs.</t>
+          <t>Steel detailing services and construction consultant.</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CLEMENTS COMMUNICATIONS, INC.</t>
+          <t>Live Home Live Longer Africa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Karen Clements</t>
+          <t>Pamela Hazel</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9178599889</v>
+        <v>9294210251</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>karendclements@aol.com</t>
+          <t>advocatepam@yahoo.com</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7570,7 +7564,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>06/29/2020;06/29/2020</t>
+          <t>06/29/2023;06/29/2023</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7580,14 +7574,10 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>163-35 130th Avenue</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>#12C</t>
-        </is>
-      </c>
+          <t>136-11 Farmers Boulvard</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -7601,48 +7591,48 @@
       <c r="L107" t="n">
         <v>11434</v>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>http://www.thecommunicatiesofcolor.com</t>
-        </is>
-      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Full service news organization and communications company.  Home to the Communities of Color news organization which includes a newspaper, website &amp; social media.  Mktg.  communications include a newsletter, press releases &amp; position marketing communications.</t>
+          <t>My business is an employment agency. Home Health Aides are dispatched to the clients home to provide needed care. Some of the services are assistance with mobility, food preparation, ensuring the clients are clean and groomed and ensuring a clean and safe environment.</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Excellent Finish</t>
+          <t>New Genesis Pathfinder, LLC</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tiffany Benjamin</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>7183223187</v>
+          <t>Diana Benjamin</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>718-400-6171</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>info@excellentfinish.com</t>
+          <t>diana@newgenesispathfinder.com</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="n">
-        <v>43920</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>11/30/2024;11/30/2024</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -7651,7 +7641,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>144-04 133rd Avenue</t>
+          <t>242-24 130th Rd</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -7666,41 +7656,41 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>11436</v>
+        <v>11422</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>http://www.excellentfinish.com</t>
+          <t>http://www.newgenesispathfinder.com</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Excellent Finish is a subcontracting company that provides drywall and insullation work for commercial and highend residential building projects. Our services include gypsum board installation, maintenance and repair, interior and exterior painting, venetian plaster, EIF.S, and general carpentry.</t>
+          <t>Consulting company providing services to small business, manage compliance monitoring, capacity building Government navigation assistance and Supplier diversity initiatives.</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Safety/Security &amp; Legal.  |IT.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sam Waterproofing, Inc.</t>
+          <t>Lifestyle Awards &amp; Promotional Products</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Arshad Mehmood</t>
+          <t>Teresa Johnson-Bishop</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9178924275</v>
+        <v>7183969842</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>samwaterproofing@gmail.com</t>
+          <t>tbishop@lifestyleawards.net</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7709,23 +7699,19 @@
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>43920</v>
+        <v>45015</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>168-42 88th Avenue</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Suite #1A</t>
-        </is>
-      </c>
+          <t>159-15 Jamaica Avenue</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -7739,44 +7725,50 @@
       <c r="L109" t="n">
         <v>11432</v>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>http://www.lifestyleawards.net</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>We provide general construction services such as, waterproofing, home improvements, repair work, roofing, side walks, concrete &amp; masonry work.</t>
+          <t>Full service recognition company providing awards, plaques, trophies, certificates, medals, office supplies and a database with a million promotional products. We also engrave products such as name plates, desk plates, rubber stamps and small signs.</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Real Marketing, Inc.</t>
+          <t>CLEMENTS COMMUNICATIONS, INC.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Marc McDowell</t>
+          <t>Karen Clements</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8008085813</v>
+        <v>9178599889</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>marc@realmarketing.biz</t>
+          <t>karendclements@aol.com</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="n">
-        <v>45045</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>06/29/2020;06/29/2020</t>
+        </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -7785,12 +7777,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>8809 148th Street</t>
+          <t>163-35 130th Avenue</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Apt 2F</t>
+          <t>#12C</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7804,61 +7796,59 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>11435</v>
+        <v>11434</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>http://realmarketing.biz</t>
+          <t>http://www.thecommunicatiesofcolor.com</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>For-Hire Vehicle Taxi and Shared Transportation Service</t>
+          <t>Full service news organization and communications company.  Home to the Communities of Color news organization which includes a newspaper, website &amp; social media.  Mktg.  communications include a newsletter, press releases &amp; position marketing communications.</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>M S N Air Service Inc.</t>
+          <t>Pax Assist Inc.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Roopnarine Singh</t>
+          <t>Asmahan Dahbali</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>718-244-5302</t>
+          <t>718-244-1223</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>rudy@msnairservice.com</t>
+          <t>accounts@paxassist.com</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="n">
-        <v>44012</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Building #86, JFK International Airport</t>
+          <t>BLDG 151 JFKIA 310F, E Hangar Road</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -7875,62 +7865,62 @@
       <c r="L111" t="n">
         <v>11430</v>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>http://www.paxassist.com</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Cargo Terminal Handling</t>
+          <t>Wheelchair services for airline passengers</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Community Enrichment Services, LLC</t>
+          <t>Early Bird II Day Care Center Inc.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Yusuf Abdul-Wali</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>718-600-1987</t>
-        </is>
+          <t>Eyeri Gonzalez</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>7187390884</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ces.llc.ny@gmail.com</t>
+          <t>earlybird2preschool@gmail.com</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="n">
-        <v>44984</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>09/29/2023;09/29/2023</t>
+        </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>170- 14 130th Avenue</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Apt 3G</t>
-        </is>
-      </c>
+          <t>90-05 161st Street</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -7942,59 +7932,57 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>11434</v>
+        <v>11432</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Project management; program development; provide small business assistance, including: initial start-up training and counseling, business plan development; marketing; specializing in minority community outreach and recruitment, marketing, screening, counseling, case management, and all phases of workshop facilitation and program evaluation.</t>
+          <t>Early Bird II is an Educational Center that offers a quality, nurturing, and productive learning environment for all preschoolers. Our students have the opportunity to learn and play with their peers in a variety of different ways. Various activities, both teacher led and student initiated, allow for our students to grow into an independent students.</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance.  |Personal Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Accounting Firm NYC LLC</t>
+          <t>Roselight Media LLC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Etagheu Asefa</t>
+          <t>Michael Mitchell</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>347-806-3111</t>
+          <t>917-749-2838</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>info@accountingfirmnyc.com</t>
+          <t>rose1@roselightmediallc.com</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>06/30/2024;06/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>45535</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>162-14 87th Road</t>
+          <t>142-27 129th Avenue</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -8009,61 +7997,59 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>11432</v>
+        <v>11436</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>http://www.accountingfirmnyc.com</t>
+          <t>http://www.roselightmediallc.com</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Accounting and consulting practice specializing in accounting, financial reporting, budgeting and forecasting, system implementation, client operations and general business solutions including recruitment, support with organizational structure, and business efficiency and process improvement.</t>
+          <t>Roselight Media is a professional full-fledged  Live Film / Video / Audio and Music Recording arts production company. We offer DJ music services professionally blending the latest genres specifically chosen. We offer film and Commercial Advertising Production, Graphic design / Animation / Website Construction and Development. We offer corporate and residential audio and video installations and provide the best live mobile audio and television ENG production services available. Teleconferencing installations and maintenance and IT mainframe networking for all media are provided for any business entity and budget. We value our customers and take pride in the great quality of our work!</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Parsons Construction, Inc</t>
+          <t>Rock E. Small Plumbing &amp; Heating, Inc.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Paramjit Kaur</t>
+          <t>Errol Small</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7188728400</v>
+        <v>7185278318</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>parsonsconstruction@aol.com</t>
+          <t>Rockesmallplumbing@yahoo.com</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>12/31/2023;12/31/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>44680</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>179-36 Hillside Avenue</t>
+          <t>152-32B Rockaway Blvd.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -8078,59 +8064,57 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>11432</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>http://NA</t>
-        </is>
-      </c>
+        <v>11434</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>We are a fully insured contractor and  furnish all labor, material etc to perform side walk shed installation,scaffold  and pipe scaffold installation, maintenance and removal.</t>
+          <t>We are a licensed and insured small plumbing company. We specialize in, but are not limited to, interior plimbing, installation of sewer and water mains, sprinklers, and removal of violations.</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality.  |Heath Services. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dorion Norton Electrical Contracting Corp.</t>
+          <t>Parsons Construction, Inc</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dorion Norton</t>
+          <t>Paramjit Kaur</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7182629800</v>
+        <v>7188728400</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>dornorelecco@aol.com</t>
+          <t>parsonsconstruction@aol.com</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="n">
-        <v>45351</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>12/31/2023;12/31/2023</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>112-33 Guy R. Brewer Blvd.</t>
+          <t>179-36 Hillside Avenue</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -8145,17 +8129,21 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>11432</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>http://NA</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>ELECTRICAL CONTRACTOR</t>
+          <t>We are a fully insured contractor and  furnish all labor, material etc to perform side walk shed installation,scaffold  and pipe scaffold installation, maintenance and removal.</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Education.  |Food &amp; Hospitality.  |Heath Services.  |Transportation. </t>
         </is>
       </c>
     </row>
@@ -8220,38 +8208,38 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services.  |Personal Services.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Education.  |Heath Services.  |Personal Services.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SS Elder In-Home Care, Inc</t>
+          <t>Rightway Plumbing and Heating Inc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Alisha Hall</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>7189493316</v>
+          <t>Bernard Watson</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>718-322-6955</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>sselderinc@gmail.com</t>
+          <t>rightwayplumbing@hotmail.com</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>09/29/2022;09/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>45382</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -8260,10 +8248,14 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>145-69 167th Street</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
+          <t>153-02</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Baisley Blvd</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -8279,59 +8271,55 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>http://www.sselderinc.com</t>
+          <t>https://www.rightwayplumbing.org</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>SS Elder In-Home Care, Inc. Is a Home Health Care Agency which provides care to homebound, disabled, and veteran seniors/elderly. We offer Nursing Supervision, Nursing Aide/ Companion, Non-Medical Home Care Services.</t>
+          <t>RIGHTWAY PLUMBING AND HEATING PROVIDES BOTH RESIDENTIAL AND COMMERCIAL SERVICES OF PLUMBING. WE PERFORM BOTH PLUMBING AND SPRINKLER WORK. WE ALSO ARE LICENSED TO PERFORM BACK FLOW PREVENTER DEVICE TESTS. OUR  PLUMBING AND SPRINKLER. WE DO NOT SELL ANY PLUMBING MATERIAL.</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Education.  |Safety/Security &amp; Legal.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ana Guzman EHS Consulting</t>
+          <t>Excellent Finish</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ana  Guzman</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>786-812-5078</t>
-        </is>
+          <t>Tiffany Benjamin</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7183223187</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ana@agehsconsulting.com</t>
+          <t>info@excellentfinish.com</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>05/31/2024;05/31/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>43920</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>133-16 160th Street</t>
+          <t>144-04 133rd Avenue</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -8346,43 +8334,41 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>11434</v>
+        <v>11436</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>http://www.agehsconsulting.com</t>
+          <t>http://www.excellentfinish.com</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Ana Guzman EHS Consulting is national in safety management. We provide services to construction and manufacture industries.  Maintaining a personal approach, helping clients meet its own set of unique safety concerns, standards and regulations.  We offer a full range of safety training programs such as OSHA 30 hours training for construction and services, from auditing to create specific SOP. We develop customized health and safety solutions to help keep employee safe and cost down. We will help you develop that safety culture on your work site, and to create a safer and more productive environment for your employees.</t>
+          <t>Excellent Finish is a subcontracting company that provides drywall and insullation work for commercial and highend residential building projects. Our services include gypsum board installation, maintenance and repair, interior and exterior painting, venetian plaster, EIF.S, and general carpentry.</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Motor Vehicle. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EMS Towing, Inc</t>
+          <t>Sam Waterproofing, Inc.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Azad Sakur</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>646-742-7910</t>
-        </is>
+          <t>Arshad Mehmood</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>9178924275</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>emstowinginc@gmail.com</t>
+          <t>samwaterproofing@gmail.com</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8391,7 +8377,7 @@
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45626</v>
+        <v>43920</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -8400,10 +8386,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>150-11 Guinzburg Road</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
+          <t>168-42 88th Avenue</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Suite #1A</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -8415,64 +8405,62 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>https://emstowinginc.com</t>
-        </is>
-      </c>
+        <v>11432</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>EMS Towing, Inc provides towing services for vehicles that are used by disabled individuals. The company also transports vehicles between locations and provides minor road services.</t>
+          <t>We provide general construction services such as, waterproofing, home improvements, repair work, roofing, side walks, concrete &amp; masonry work.</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Motor Vehicle.  |Transportation. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bug Queen, Inc.</t>
+          <t>Real Marketing, Inc.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nadine Wilson-Dindial</t>
+          <t>Marc McDowell</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6467154585</v>
+        <v>8008085813</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>bugqueen2@gmail.com</t>
+          <t>marc@realmarketing.biz</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>03/30/2023;03/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>116-24 142nd Street</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr"/>
+          <t>8809 148th Street</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Apt 2F</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -8484,63 +8472,61 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>11436</v>
+        <v>11435</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>https://bug queen.com</t>
+          <t>http://realmarketing.biz</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Pest Control Services</t>
+          <t>For-Hire Vehicle Taxi and Shared Transportation Service</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lauren Media Group, LLC</t>
+          <t>M S N Air Service Inc.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ann Legall</t>
+          <t>Roopnarine Singh</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>917-239-9994</t>
+          <t>718-244-5302</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ann@laurenmediagroup.com</t>
+          <t>rudy@msnairservice.com</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>03/31/2025;03/31/2025</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>116-34 Marsden Street</t>
+          <t>Building #86, JFK International Airport</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -8555,41 +8541,39 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>http://www.LaurenMediaGroup.com</t>
-        </is>
-      </c>
+        <v>11430</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>LaurÃ©n Media Groups' founder comes from an entertainment and production backgrounds, where artistic and technical expertise join together in bringing events to life. As event planners, the value of a great guest experience is our currency. LaurÃ©n Media Group is rapidly emerging as one of the most innovative leaders in event planning, public relations and the entertainment industry.   LaurÃ©n Media Group specializes in producing innovative, sophisticated and cutting edge events, using a core belief that storytelling drives our creative approach.  Through its deep experience and countless productions, LaurÃ©n Media Group understands that to truly engage a guest, ideas must be fully realized down to the smallest detail. So whether our creative team comes up with an ambitious concept or our venue specialist discovers an untapped space, we make it happen â and guests will leave inspired.</t>
+          <t>Cargo Terminal Handling</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SCE Detailing Group, Inc.</t>
+          <t>Jenkins Consulting, Inc.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lucky Damiao</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>7185029461</v>
+          <t>Patrick Jenkins</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>917-597-2336</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ldamiao@gmail.com</t>
+          <t>patrick@pbjenkins.com</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8598,16 +8582,16 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44012</v>
+        <v>44650</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>112-17 159th Street</t>
+          <t>114-35 140th Street</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -8622,62 +8606,68 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>11436</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>https://www.patrickbjenkins.com</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Steel detailing services and construction consultant.</t>
+          <t>Consulting Services</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Best Team Realty</t>
+          <t>Community Enrichment Services, LLC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ruth Demetriou</t>
+          <t>Yusuf Abdul-Wali</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>718-526-0749</t>
+          <t>718-600-1987</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ruthsellshomes@gmail.com</t>
+          <t>ces.llc.ny@gmail.com</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>01/31/2025;01/31/2025</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>87-15 164th St</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
+          <t>170- 14 130th Avenue</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Apt 3G</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -8689,41 +8679,37 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>11432</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>https://www.BestTeamRealty.com</t>
-        </is>
-      </c>
+        <v>11434</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Best Team Realty is a  real estate office offering a full range of real estate services for the purchase and sale of residential, commercial and land properties.  â¢ List and show properties covering a wide price spectrum in New York: Manhattan (West Side, Upper East, Midtown East), the Bronx, Brooklyn, Queens and Nassau, to include new developments and luxury and investment properties  â¢ Assist buyers, sellers and investors, from assessing clientsâ requirements to facilitating final sales  â¢ Handle residential (homeowner sales, home sites, multi-family, co-ops &amp; condos) and commercial real estate sales (industrial land, mixed-use properties) and short sales, estates and foreclosures â¢ Educate and support clients in making informed real estate decisions â¢ Represent buyers and sellers and facilitate and expedite property purchases and sales. Real Estate Specialties: - Residential Real Estate: Apartment Buildings, Brownstones, Condos, Co-ops, Estates, First Time Home Buyers, Home Sellers, Home Staging, HUD, Luxury Properties, Multi-Family Properties, New Home Sales, New York Real Estate Investments, Relocations, Residential Homes  - Commercial Real Estate: Commercial Real Estate Developments, Corporate Relocations, Hotels, Mixed-Use Properties, Office Space (with Storefronts), Real Estate Acquisitions  - Land Sales: Commercial Sites, Home Sites, Industrial Land Sales  Services include: - Buyer services: Support buyers in finding a primary or second residence or investment   property and  in  negotiating the best price - Seller services: Support sellers in showcasing their property for sale and in achieving the best price for their property.   Ruth loves what she does, she has one trade and mastered well. Throughout the years, . Ruth help Families to Buy, Sell and Invest in Real estate. Ruth is very knowledgeable in pricing. In recent years, she has successfully closed a number of short sales where she acts as the negotiator for distressed sellers.</t>
+          <t>Project management; program development; provide small business assistance, including: initial start-up training and counseling, business plan development; marketing; specializing in minority community outreach and recruitment, marketing, screening, counseling, case management, and all phases of workshop facilitation and program evaluation.</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Worldwide Safety Consultants LLC</t>
+          <t>JPR BUILDERS 07 INC.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Steve David</t>
+          <t>Pauline Charles-Ajim</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6462084484</v>
+        <v>6464418738</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>sxdavid@me.com</t>
+          <t>contact.us@jprbuilders07.com</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8732,7 +8718,7 @@
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>43829</v>
+        <v>45351</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -8741,7 +8727,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>18021 140th Avenue</t>
+          <t>114-12 Merrick Blvd</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -8760,48 +8746,48 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>http://www.worlwidesafetyconsultants.com</t>
+          <t>http://www.jprbuilders07.com</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Environmental, health and safety services EHS programs; implement and monitor programs. Conduct EHS training, ETC.</t>
+          <t>JPR Builders 07 Inc. (JPR) founded in 2007 - is a Certified MWBE, Non-Union, Commercial, Industrial and Residential Interior Renovation General Contractor specializing in Rough and Finish Carpentry; this includes minor demo, framing, insulation, drywall, taping/sparkling, molding, painting, tiling, subfloor &amp; wood floor installation and Subcontract Electrical, Plumbing, Sprinkler, HVAC and any other Contracting needs to complete a Project. All employees are at least OSHA 30 hour Certified.</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance.  |Safety/Security &amp; Legal.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Keep It Lush Gardening &amp; Landscaping, LLC</t>
+          <t>Royal Exterminating Company Inc.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Michele Keller</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>9176238376</v>
+          <t>Joe Olobor</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>646-996-2656</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Medithk@aol.com</t>
+          <t>pastorjolobor@aol.com</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>03/30/2023;03/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>45565</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -8810,7 +8796,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>115-36 165th Street</t>
+          <t>108-44 172nd Street</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -8825,55 +8811,63 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>11433</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>http://www.royalexterminatingco.net</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Landscaping that includes lush perennials and some landscape that will be low maintenance. There are three (3) different packages which clients can choose from based on their lifestyles.</t>
+          <t>Exterminating services: Commercial, Residential and Industrial - for roaches, rodent, termites, flies and bedbugs.</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Seppas Corporation</t>
+          <t>Accounting Firm NYC LLC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Shirin Rahman</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>6463150746</v>
+          <t>Etagheu Asefa</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>347-806-3111</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>seppas07@aol.com</t>
+          <t>info@accountingfirmnyc.com</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="n">
-        <v>44012</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>06/30/2024;06/30/2024</t>
+        </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>107-36 Guy R Brewer Blvd.</t>
+          <t>162-14 87th Road</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -8888,46 +8882,52 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>11433</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>11432</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>http://www.accountingfirmnyc.com</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Heating, Ventilation and Air Conditioning.</t>
+          <t>Accounting and consulting practice specializing in accounting, financial reporting, budgeting and forecasting, system implementation, client operations and general business solutions including recruitment, support with organizational structure, and business efficiency and process improvement.</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Walton Electrical Construction Corp.</t>
+          <t>SS Elder In-Home Care, Inc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Marc Walton</t>
+          <t>Alisha Hall</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7189782004</v>
+        <v>7189493316</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>wecc@waltoncorp.com</t>
+          <t>sselderinc@gmail.com</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="n">
-        <v>45351</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>09/29/2022;09/29/2022</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>122-36 Farmers Boulevard</t>
+          <t>145-69 167th Street</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -8951,57 +8951,59 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>11413</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>11434</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>http://www.sselderinc.com</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Electrical maintenance service.</t>
+          <t>SS Elder In-Home Care, Inc. Is a Home Health Care Agency which provides care to homebound, disabled, and veteran seniors/elderly. We offer Nursing Supervision, Nursing Aide/ Companion, Non-Medical Home Care Services.</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Market Pioneer International Corp.</t>
+          <t>Dorion Norton Electrical Contracting Corp.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Grace Lin</t>
+          <t>Dorion Norton</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7182446216</v>
+        <v>7182629800</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Betty@marketpioneer.com</t>
+          <t>dornorelecco@aol.com</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>04/29/2023;04/29/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>45351</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>179-15 149th Road</t>
+          <t>112-33 Guy R. Brewer Blvd.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -9016,52 +9018,46 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>http://www.marketpioneer.com</t>
-        </is>
-      </c>
+        <v>11433</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Market Pioneer International Corp was established in 1988 with more than 29 years experience in all aspects of handling and coordinating the movement of international cargo. We provide service products, including: international forwarding, customs clearance, consolidation cargo service, trucking service, door to door service, warehousing services, chartering services, packing service, applications for import and export license, and forwarding consultation.</t>
+          <t>ELECTRICAL CONTRACTOR</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Citiwide Professional Services, Inc</t>
+          <t>M.A.C. Tech Fabrication &amp; Repairs, Inc.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Candith Jackson</t>
+          <t>Chester Gordon</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7187048345</v>
+        <v>7189955334</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>candithjackson@hotmail.com</t>
+          <t>Info@mactechfab.com</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>06/30/2024;06/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>45688</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -9070,7 +9066,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>145-47 115th Avenue</t>
+          <t>167-11 146th Road</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -9085,37 +9081,41 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>11436</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>11434</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>http://www.mactechfab.com</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Greetings,  It is of great delight and pride to introduce our company Citiwide Professional Services, Inc., a new entry in the staffing industry with the hopes of establishing a relationship with your organization.   We are a full-service staffing company, fully capable of rendering quality proven Temporary or Permanent assignments in the Medical, Transportation, Administrative and Janitorial markets, ready to service companies like you.   The primary approach of our company, is based on the simple analogy that the success of our clients, equates our success as well and this shall be our guiding principle in every transaction.  Our company is composed of highly enthusiastic and experienced individuals eagerly waiting to assist with your demands.    I look forward to hearing from you and anticipate the possibility of us working together.  Sincerely yours,  Candith Jackson, President</t>
+          <t>MAC- Tech Fabrication is a custom metal fabrication shop that specializes in architectural finishes made from different metals such as stainless steel, aluminum, bronze, copper etc. We make handmade rails, wall panels, store fronts, canopies, etc. We can supply parts with polished, powder coated, painted anodized and paginated finishes.</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |IT. </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>JPR BUILDERS 07 INC.</t>
+          <t>Accurate Information Services, Inc.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pauline Charles-Ajim</t>
+          <t>Lorraine Elson</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6464418738</v>
+        <v>7185586100</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>contact.us@jprbuilders07.com</t>
+          <t>mallert@accurateinfoserv.com</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>114-12 Merrick Blvd</t>
+          <t>159-25 Hillside Avenue</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -9148,68 +9148,58 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>11434</v>
+        <v>11432</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>http://www.jprbuilders07.com</t>
+          <t>http://www.accurateinfoserv.com</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>JPR Builders 07 Inc. (JPR) founded in 2007 - is a Certified MWBE, Non-Union, Commercial, Industrial and Residential Interior Renovation General Contractor specializing in Rough and Finish Carpentry; this includes minor demo, framing, insulation, drywall, taping/sparkling, molding, painting, tiling, subfloor &amp; wood floor installation and Subcontract Electrical, Plumbing, Sprinkler, HVAC and any other Contracting needs to complete a Project. All employees are at least OSHA 30 hour Certified.</t>
+          <t>Accurate Information Services, Inc., is a company of independent adjusters and investigators handling property damage and liability claims resulting from water, fire, construction claims, automobile accidents, trip/slip and fall, products liability, surveillance, workers compensation, no fault claims, background database and criminal searches, trial preparation and subpoena services.</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |IT. </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Rightway Plumbing and Heating Inc</t>
+          <t>DNS Fine Builders Inc.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Bernard Watson</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>718-322-6955</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>rightwayplumbing@hotmail.com</t>
-        </is>
-      </c>
+          <t>Fayyaz Nawaz</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>7185231118</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45382</v>
+        <v>44226</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>153-02</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Baisley Blvd</t>
-        </is>
-      </c>
+          <t>83-28 Parsons Blvd</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -9221,41 +9211,37 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>11434</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>https://www.rightwayplumbing.org</t>
-        </is>
-      </c>
+        <v>11432</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>RIGHTWAY PLUMBING AND HEATING PROVIDES BOTH RESIDENTIAL AND COMMERCIAL SERVICES OF PLUMBING. WE PERFORM BOTH PLUMBING AND SPRINKLER WORK. WE ALSO ARE LICENSED TO PERFORM BACK FLOW PREVENTER DEVICE TESTS. OUR  PLUMBING AND SPRINKLER. WE DO NOT SELL ANY PLUMBING MATERIAL.</t>
+          <t>DNS Fine Builders is a full line residential/commercial building construction and a restoration company in New York City metropolitan area. DNS Fine Builders also do alternations and additions, routine repairs, maintenance, restoration and local law II inspection report.</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |IT. </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>All-City Pest Control LLC</t>
+          <t>PMT Forklift Corporation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Rasheen Jordan</t>
+          <t>Mark DeLeon</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3473505943</v>
+        <v>6316615050</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>allcitypestcontrol@yahoo.com</t>
+          <t>info@pmtforklift.com</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9264,16 +9250,16 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>43921</v>
+        <v>45322</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>172-12 Brocher</t>
+          <t>148-14 Liberty Avenue</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -9288,17 +9274,1367 @@
         </is>
       </c>
       <c r="L132" t="n">
+        <v>11435</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>http://www.pmtforklift.com</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>PMT Forklift is a full service material handling company. We sell, lease, rent, repair, and carry parts for forklifts and warehouse equipment. We also handle aerial lifts and sweepers and scrubbers.</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>AFreeride LLC</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Sommer Rahim</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>7188437433</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A.Freeman@afreeridellc.com</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>14907 130th Avenue</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>11436</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>http://www.Afreeridetransportation.com</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>AFreeRide Transportation is registered with the City, State and licensed as a vehicle  for hire and commercially insured. Every TLC driver is licensed and undergoes a full screening to provide you with the best services in the industry. We will always be on time and ready to make your time with us as pleasant as possible.</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hidden Talents Tutoring Center 'Explore Who You Are' Inc.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>7183220022</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>gptutor@gmail.com</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>04/29/2023;04/29/2023</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>139-14 109th Avenue</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2nd FL</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>11435</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Tutoring &amp; educational services</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>EMS Towing, Inc</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Azad Sakur</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>646-742-7910</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>emstowinginc@gmail.com</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>150-11 Guinzburg Road</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>11433</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>https://emstowinginc.com</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>EMS Towing, Inc provides towing services for vehicles that are used by disabled individuals. The company also transports vehicles between locations and provides minor road services.</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Motor Vehicle.  |Transportation. </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Ana Guzman EHS Consulting</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ana  Guzman</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>786-812-5078</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ana@agehsconsulting.com</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>05/31/2024;05/31/2024</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>133-16 160th Street</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
         <v>11434</v>
       </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>http://www.agehsconsulting.com</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Ana Guzman EHS Consulting is national in safety management. We provide services to construction and manufacture industries.  Maintaining a personal approach, helping clients meet its own set of unique safety concerns, standards and regulations.  We offer a full range of safety training programs such as OSHA 30 hours training for construction and services, from auditing to create specific SOP. We develop customized health and safety solutions to help keep employee safe and cost down. We will help you develop that safety culture on your work site, and to create a safer and more productive environment for your employees.</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Motor Vehicle.  |Transportation. </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Bug Queen, Inc.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nadine Wilson-Dindial</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>6467154585</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>bugqueen2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>03/30/2023;03/30/2023</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>116-24 142nd Street</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>11436</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>https://bug queen.com</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Pest Control Services</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Lauren Media Group, LLC</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ann Legall</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>917-239-9994</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ann@laurenmediagroup.com</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>03/31/2025;03/31/2025</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>116-34 Marsden Street</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>http://www.LaurenMediaGroup.com</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>LaurÃ©n Media Groups' founder comes from an entertainment and production backgrounds, where artistic and technical expertise join together in bringing events to life. As event planners, the value of a great guest experience is our currency. LaurÃ©n Media Group is rapidly emerging as one of the most innovative leaders in event planning, public relations and the entertainment industry.   LaurÃ©n Media Group specializes in producing innovative, sophisticated and cutting edge events, using a core belief that storytelling drives our creative approach.  Through its deep experience and countless productions, LaurÃ©n Media Group understands that to truly engage a guest, ideas must be fully realized down to the smallest detail. So whether our creative team comes up with an ambitious concept or our venue specialist discovers an untapped space, we make it happen â and guests will leave inspired.</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Andrew J Photography, LLC</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Andrew Jones</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9177558177</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>andrewj374@aol.com</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>135-06 Denis Street</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>http://www.andrewjphotography.com</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>We are a NYC Photography Company that specializes in event Photography, progress photos and we have photo booths as well.  Magic Smiles Photobooth.</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Natural Resources/Environmetal.  |Transportation. </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Best Team Realty</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ruth Demetriou</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>718-526-0749</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ruthsellshomes@gmail.com</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>01/31/2025;01/31/2025</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>87-15 164th St</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>11432</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>https://www.BestTeamRealty.com</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Best Team Realty is a  real estate office offering a full range of real estate services for the purchase and sale of residential, commercial and land properties.  â¢ List and show properties covering a wide price spectrum in New York: Manhattan (West Side, Upper East, Midtown East), the Bronx, Brooklyn, Queens and Nassau, to include new developments and luxury and investment properties  â¢ Assist buyers, sellers and investors, from assessing clientsâ requirements to facilitating final sales  â¢ Handle residential (homeowner sales, home sites, multi-family, co-ops &amp; condos) and commercial real estate sales (industrial land, mixed-use properties) and short sales, estates and foreclosures â¢ Educate and support clients in making informed real estate decisions â¢ Represent buyers and sellers and facilitate and expedite property purchases and sales. Real Estate Specialties: - Residential Real Estate: Apartment Buildings, Brownstones, Condos, Co-ops, Estates, First Time Home Buyers, Home Sellers, Home Staging, HUD, Luxury Properties, Multi-Family Properties, New Home Sales, New York Real Estate Investments, Relocations, Residential Homes  - Commercial Real Estate: Commercial Real Estate Developments, Corporate Relocations, Hotels, Mixed-Use Properties, Office Space (with Storefronts), Real Estate Acquisitions  - Land Sales: Commercial Sites, Home Sites, Industrial Land Sales  Services include: - Buyer services: Support buyers in finding a primary or second residence or investment   property and  in  negotiating the best price - Seller services: Support sellers in showcasing their property for sale and in achieving the best price for their property.   Ruth loves what she does, she has one trade and mastered well. Throughout the years, . Ruth help Families to Buy, Sell and Invest in Real estate. Ruth is very knowledgeable in pricing. In recent years, she has successfully closed a number of short sales where she acts as the negotiator for distressed sellers.</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jetway Heating Cooling And Refrigeration</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Sylvia Cothia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>917-331-6037</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>jetwayhvacservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>P.O Box 312311</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>11432</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>https://handoeng.com</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Jetway Heating, Cooling and Refrigeration is a licensed contractor providing installation, service and maintenance of HVAC systems in residential and commercial buildings. The business specializes in all models of Mitsubishi Dustless systems.</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Worldwide Safety Consultants LLC</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Steve David</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>6462084484</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>sxdavid@me.com</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>18021 140th Avenue</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>http://www.worlwidesafetyconsultants.com</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Environmental, health and safety services EHS programs; implement and monitor programs. Conduct EHS training, ETC.</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Keep It Lush Gardening &amp; Landscaping, LLC</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Michele Keller</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>9176238376</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Medithk@aol.com</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>03/30/2023;03/30/2023</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>115-36 165th Street</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Landscaping that includes lush perennials and some landscape that will be low maintenance. There are three (3) different packages which clients can choose from based on their lifestyles.</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Nax Construction, Inc</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Daljit Singh</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>646-688-8949</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>johnny@rasincorp.com</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>109-23 Van Wyck Expy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>11435</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Nax Construction, Inc provides painting, carpentry and renovation services.</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Triera Contracting Inc</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mandeep Singh</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>5165547999</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Trieracontracting@gmail.com</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>150-10 Beaver Road</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>11435</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>http://www.trieracontracting.com</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>WE INSTALL SCAFFOLD &amp; SIDEWALK SHED</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Dionne Durant</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Dionne Durant</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>347-965-1626</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Dionneadurant@aol.com</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>08/30/2022;08/30/2022</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>144-87 177th Street</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>I am a LMSW Social Worker with extensive Public Health experience. My experiences include but are not limited to supporting connections and networking with faith based groups, developing and maintaining Maternal Child Health programs addressing the needs of communities of color experiencing disparities and facilitating community collaboration and coalition development using community participatory approaches.</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NCLA Inc.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Curlene Nelson</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>9175764656</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>inelson1nyc@gmail.com</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>05/31/2024;05/31/2024</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>167-24 145th Avenue</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>http://www.nelsoncla.com</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>We are a computer services company, providing computer installation and training in all computer software applications. Specializing in computer repair and project consulations to small and midrange businesses.</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Seppas Corporation</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Shirin Rahman</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>6463150746</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>seppas07@aol.com</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>107-36 Guy R Brewer Blvd.</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>11433</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Heating, Ventilation and Air Conditioning.</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Market Pioneer International Corp.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Grace Lin</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>7182446216</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Betty@marketpioneer.com</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>04/29/2023;04/29/2023</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>179-15 149th Road</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>http://www.marketpioneer.com</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Market Pioneer International Corp was established in 1988 with more than 29 years experience in all aspects of handling and coordinating the movement of international cargo. We provide service products, including: international forwarding, customs clearance, consolidation cargo service, trucking service, door to door service, warehousing services, chartering services, packing service, applications for import and export license, and forwarding consultation.</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Citiwide Professional Services, Inc</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Candith Jackson</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>7187048345</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>candithjackson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>06/30/2024;06/30/2024</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>145-47 115th Avenue</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>11436</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Greetings,  It is of great delight and pride to introduce our company Citiwide Professional Services, Inc., a new entry in the staffing industry with the hopes of establishing a relationship with your organization.   We are a full-service staffing company, fully capable of rendering quality proven Temporary or Permanent assignments in the Medical, Transportation, Administrative and Janitorial markets, ready to service companies like you.   The primary approach of our company, is based on the simple analogy that the success of our clients, equates our success as well and this shall be our guiding principle in every transaction.  Our company is composed of highly enthusiastic and experienced individuals eagerly waiting to assist with your demands.    I look forward to hearing from you and anticipate the possibility of us working together.  Sincerely yours,  Candith Jackson, President</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>All-City Pest Control LLC</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Rasheen Jordan</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>3473505943</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>allcitypestcontrol@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>172-12 Brocher</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
         <is>
           <t>All-City Pest Control provides integrated pest management rodent proofing, Bedbug eradication, emergency services for structural, residential, commercial, and food management organizations.</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> |Safety/Security &amp; Legal. </t>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Safety/Security &amp; Legal.  |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Woodberry &amp; Associates Global Consulting and Development Services</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Warren Woodberry Jr.</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2127098137</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>wnaconsulting@gmail.com</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>172-08 115th Avenue</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>11434</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>http://www.wnaconsulting.com</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Woodberry &amp; Associates is a Wall Street based public relations and Media Consulting firm.</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Transportation. </t>
         </is>
       </c>
     </row>
